--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skm\Dynamics Crm Updated\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM-V1.0\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A4235-C833-4FF7-BD3A-62FAD3E925DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579A83A-F7AE-4B1D-8CCD-BC082576BE73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8760" windowHeight="3330" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Driver" sheetId="4" r:id="rId1"/>
+    <sheet name="Member" sheetId="2" r:id="rId2"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
   <si>
     <t>UserName</t>
   </si>
@@ -142,15 +151,9 @@
     <t>City</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Non-GPO Member</t>
   </si>
   <si>
@@ -163,77 +166,266 @@
     <t>corp\crmtest02</t>
   </si>
   <si>
+    <t>LineOfBusinessStartDate</t>
+  </si>
+  <si>
+    <t>Managed</t>
+  </si>
+  <si>
+    <t>10/20/2020</t>
+  </si>
+  <si>
+    <t>OLM</t>
+  </si>
+  <si>
+    <t>SelectEndDate</t>
+  </si>
+  <si>
+    <t>EndReason</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>CrmNumber</t>
+  </si>
+  <si>
+    <t>2000438796</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1141 : Validate Business Key</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1148 : Validate Address Changes</t>
+  </si>
+  <si>
+    <t>CrmNumber1</t>
+  </si>
+  <si>
+    <t>2000420865</t>
+  </si>
+  <si>
+    <t>2000391336</t>
+  </si>
+  <si>
+    <t>2000438441</t>
+  </si>
+  <si>
+    <t>2000439894</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Ship To</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1152 : Validate Convert Acct Entity Code to Ship-to Acct</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1241 : Validate that a Non-GPO can only be changed to Member</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5475 : Create a new GPO Member</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5476 : Modify existing GPO Member</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5486 : Create a new Non-GPO Member</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5828 : Terminate existing GPO Member</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>21st Century Oncology of Kentucky LLC</t>
+  </si>
+  <si>
+    <t>ActiveMember1</t>
+  </si>
+  <si>
+    <t>2000448312</t>
+  </si>
+  <si>
+    <t>Member_1141_11302020</t>
+  </si>
+  <si>
+    <t>Member_1241_11302020</t>
+  </si>
+  <si>
+    <t>Member_5475_11302020</t>
+  </si>
+  <si>
+    <t>Member_5486_11302020</t>
+  </si>
+  <si>
+    <t>Member_5476_11302020</t>
+  </si>
+  <si>
     <t>LineOfBusinessGeneralGPO</t>
   </si>
   <si>
+    <t>LineOfClassificationGeneralGPO</t>
+  </si>
+  <si>
     <t>General GPO</t>
   </si>
   <si>
-    <t>LineOfClassificationGeneralGPO</t>
-  </si>
-  <si>
-    <t>LineOfBusinessStartDate</t>
-  </si>
-  <si>
-    <t>Managed</t>
-  </si>
-  <si>
-    <t>10/20/2020</t>
-  </si>
-  <si>
-    <t>OLM</t>
-  </si>
-  <si>
-    <t>RecordStatusPublished1</t>
-  </si>
-  <si>
-    <t>corp\crmtest01</t>
-  </si>
-  <si>
-    <t>SelectEndDate</t>
-  </si>
-  <si>
-    <t>EndReason</t>
-  </si>
-  <si>
-    <t>09/18/2020</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>CrmNumber</t>
-  </si>
-  <si>
-    <t>2000438796</t>
-  </si>
-  <si>
-    <t>251 33rd St</t>
-  </si>
-  <si>
-    <t>SenthilMemberTP2</t>
-  </si>
-  <si>
-    <t>SenthilMemberTP3</t>
-  </si>
-  <si>
-    <t>Senthil4MemberModified</t>
-  </si>
-  <si>
-    <t>SenthilMemberTP5</t>
-  </si>
-  <si>
-    <t>AbdulTest</t>
-  </si>
-  <si>
-    <t>TestId</t>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>defaultAccountStatus</t>
+  </si>
+  <si>
+    <t>defaultAccountType</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>premierStartDate</t>
+  </si>
+  <si>
+    <t>businessClassification</t>
+  </si>
+  <si>
+    <t>selectTPRelationDate</t>
+  </si>
+  <si>
+    <t>street1</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>recordStatusPublished</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Create Supplier Automation</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>Service Agreement</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5921 : Create a supplier top parent</t>
+  </si>
+  <si>
+    <t>CRMNumber</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2020_12_21_03_58_16</t>
+  </si>
+  <si>
+    <t>2020_12_21_03_58_59</t>
+  </si>
+  <si>
+    <t>2000454920</t>
+  </si>
+  <si>
+    <t>2020_12_21_04_01_06</t>
+  </si>
+  <si>
+    <t>2000454921</t>
+  </si>
+  <si>
+    <t>2020_12_21_04_03_01</t>
+  </si>
+  <si>
+    <t>2020_12_21_04_03_02</t>
+  </si>
+  <si>
+    <t>2000454922</t>
+  </si>
+  <si>
+    <t>2020_12_21_04_04_53</t>
+  </si>
+  <si>
+    <t>2020_12_21_04_06_13</t>
+  </si>
+  <si>
+    <t>Member_7138_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>ReleaseCategory</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>2020_12_22_02_11_50</t>
+  </si>
+  <si>
+    <t>2020_12_22_02_11_51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,16 +439,57 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,18 +497,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,527 +845,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C27B6A-7066-4805-AD35-11DE26776383}">
-  <dimension ref="A1:AG6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="13" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="96.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{21A4E500-523D-4CD0-8E94-16256DD50CF5}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
+  <dimension ref="A1:AM14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="96.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5475</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" t="s">
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U5" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y5" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA5" t="s">
         <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5486</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5828</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5476</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="AB5" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1148</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="U6" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="X6" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Y6" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AC6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AI6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="AF9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="10">
+        <f ca="1">TODAY()</f>
+        <v>44187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
         <v>14</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="3">
+        <v>673415</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="10">
+        <f ca="1">TODAY()</f>
+        <v>44187</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="10">
+        <f ca="1">TODAY()</f>
+        <v>44187</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A2:A6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1148</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM-V1.0\TestNG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\eclipse-workspace\2\Dynamics-CRM-V2.0\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579A83A-F7AE-4B1D-8CCD-BC082576BE73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF62F27-ADA7-4E3C-A95F-2D351B12EBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
     <sheet name="Supplier" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$H$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="239">
   <si>
     <t>UserName</t>
   </si>
@@ -319,9 +322,6 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Create Supplier Automation</t>
-  </si>
-  <si>
     <t>11/23/2020</t>
   </si>
   <si>
@@ -349,73 +349,412 @@
     <t>No</t>
   </si>
   <si>
-    <t>Skipped</t>
+    <t>Member_7138_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>ReleaseCategory</t>
+  </si>
+  <si>
+    <t>corp\crmtest04</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5757: Supplier account can not be inactive</t>
+  </si>
+  <si>
+    <t>254 33rd St</t>
+  </si>
+  <si>
+    <t>Create Supplier TP</t>
+  </si>
+  <si>
+    <t>Check Supplier Account Status</t>
+  </si>
+  <si>
+    <t>expectedAccountStatusErrorText</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5911: Add a primary contact to a supplier</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7153: Create a supplier Top Parent- Save using Supplier Login and but not able to Publish</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7154 :Create a supplier under a DP and save using Supplier Login</t>
+  </si>
+  <si>
+    <t>corp\crmtest03</t>
+  </si>
+  <si>
+    <t>Add Primary Contact to Supplier</t>
+  </si>
+  <si>
+    <t>Create TP with Supplier Login</t>
+  </si>
+  <si>
+    <t>Create a Supplier under DP with Supplier Login</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>Wholesaler</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>255 33rd St</t>
+  </si>
+  <si>
+    <t>256 33rd St</t>
+  </si>
+  <si>
+    <t>257 33rd St</t>
+  </si>
+  <si>
+    <t>Supplier cannot be made Inactive</t>
+  </si>
+  <si>
+    <t>addSupplierPrimaryContact</t>
+  </si>
+  <si>
+    <t>7000309682</t>
+  </si>
+  <si>
+    <t>verifyPrimaryContactValue</t>
+  </si>
+  <si>
+    <t>Almon, Helen</t>
+  </si>
+  <si>
+    <t>directParent</t>
+  </si>
+  <si>
+    <t>823260</t>
+  </si>
+  <si>
+    <t>1/4/2021</t>
+  </si>
+  <si>
+    <t>selectDPRelationDate</t>
+  </si>
+  <si>
+    <t>1000Bulbs.com</t>
+  </si>
+  <si>
+    <t>verifyDPValue</t>
+  </si>
+  <si>
+    <t>Publish Supplier under DP with Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7159 :Create a supplier under DP -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>258 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7155 :Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>crmNumberInput</t>
+  </si>
+  <si>
+    <t>verifyAccountName</t>
+  </si>
+  <si>
+    <t>1000162819</t>
+  </si>
+  <si>
+    <t>7 Oaks Pharmaceutical</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7160 :Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>storeLocationType</t>
+  </si>
+  <si>
+    <t>Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>260 33rd St</t>
+  </si>
+  <si>
+    <t>verifyEntityCode</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7161 :Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>1/5/2021</t>
+  </si>
+  <si>
+    <t>2000336450</t>
+  </si>
+  <si>
+    <t>3dr Laboratories, LLC</t>
+  </si>
+  <si>
+    <t>635140</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7162 :Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>2000451047</t>
+  </si>
+  <si>
+    <t>AD7516</t>
+  </si>
+  <si>
+    <t>613med Solutions</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7157:Modify Address in an existing Supplier Account as a Supplier Supervisor and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t>2000141830</t>
+  </si>
+  <si>
+    <t>804679</t>
+  </si>
+  <si>
+    <t>Modify Address as a Supplier Supervisor</t>
+  </si>
+  <si>
+    <t>180 Innovations LLC</t>
+  </si>
+  <si>
+    <t>261 33rd St</t>
+  </si>
+  <si>
+    <t>recordChangeStatus</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>verifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7158:Modify Address in an existing Supplier Account as a Supplier and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t>Needs Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000141844 </t>
+  </si>
+  <si>
+    <t>2 Unique Caterers and Event Planners Inc</t>
+  </si>
+  <si>
+    <t>verifyRecordStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Address as a Supplier </t>
+  </si>
+  <si>
+    <t>826992</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7156:Modify Address in an existing Supplier Account and re-publish as a Supplier Supervisor. Same Entity code should be retained</t>
+  </si>
+  <si>
+    <t>262 33rd St</t>
+  </si>
+  <si>
+    <t>263 33rd St</t>
+  </si>
+  <si>
+    <t>2 Degrees, Inc</t>
+  </si>
+  <si>
+    <t>739125</t>
+  </si>
+  <si>
+    <t>2000141843</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_37_38</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_41_06</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_41_07</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_41_08</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_41_09</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_44_21</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_44_22</t>
+  </si>
+  <si>
+    <t>2000455431</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2020_12_21_03_58_16</t>
-  </si>
-  <si>
-    <t>2020_12_21_03_58_59</t>
-  </si>
-  <si>
-    <t>2000454920</t>
-  </si>
-  <si>
-    <t>2020_12_21_04_01_06</t>
-  </si>
-  <si>
-    <t>2000454921</t>
-  </si>
-  <si>
-    <t>2020_12_21_04_03_01</t>
-  </si>
-  <si>
-    <t>2020_12_21_04_03_02</t>
-  </si>
-  <si>
-    <t>2000454922</t>
-  </si>
-  <si>
-    <t>2020_12_21_04_04_53</t>
-  </si>
-  <si>
-    <t>2020_12_21_04_06_13</t>
-  </si>
-  <si>
-    <t>Member_7138_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>ReleaseCategory</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>2020_12_22_02_11_50</t>
-  </si>
-  <si>
-    <t>2020_12_22_02_11_51</t>
+    <t>2021_01_06_07_45_37</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_45_38</t>
+  </si>
+  <si>
+    <t>2000455432</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_47_03</t>
+  </si>
+  <si>
+    <t>2000455433</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_48_25</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_49_27</t>
+  </si>
+  <si>
+    <t>2000455435</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_50_41</t>
+  </si>
+  <si>
+    <t>2000455436</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_52_00</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_53_20</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_54_49</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_56_11</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_57_14</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_58_19</t>
+  </si>
+  <si>
+    <t>2000141844</t>
+  </si>
+  <si>
+    <t>2021_01_06_07_59_28</t>
+  </si>
+  <si>
+    <t>2021_01_06_08_00_32</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_21_07</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_21_08</t>
+  </si>
+  <si>
+    <t>2000455509</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_22_23</t>
+  </si>
+  <si>
+    <t>2000455510</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_23_46</t>
+  </si>
+  <si>
+    <t>2000455511</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_25_07</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_25_43</t>
+  </si>
+  <si>
+    <t>2000455512</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_26_55</t>
+  </si>
+  <si>
+    <t>2000455514</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_28_13</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_29_34</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_31_01</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_32_03</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_33_07</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_34_13</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_35_22</t>
+  </si>
+  <si>
+    <t>2021_01_07_11_36_28</t>
   </si>
 </sst>
 </file>
@@ -469,7 +808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,6 +876,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -846,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +1204,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="96.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
@@ -874,19 +1221,19 @@
         <v>82</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,14 +1249,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,19 +1264,16 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,19 +1284,16 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -966,22 +1304,16 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,22 +1324,16 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,19 +1344,16 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1041,22 +1364,16 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>124</v>
-      </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,19 +1384,16 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>124</v>
-      </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,22 +1401,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>222</v>
+      </c>
+      <c r="H10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,87 +1424,340 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>122</v>
-      </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H26" xr:uid="{740CCFF8-6F7D-4CCD-BB30-91A612C46778}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{21A4E500-523D-4CD0-8E94-16256DD50CF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{21A4E500-523D-4CD0-8E94-16256DD50CF5}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1202,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1788,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="13" max="14" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="22.28515625" collapsed="true"/>
@@ -1776,7 +2343,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>42</v>
@@ -1785,11 +2352,11 @@
         <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H10" s="10">
         <f ca="1">TODAY()</f>
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -1823,14 +2390,14 @@
       </c>
       <c r="W10" s="10">
         <f ca="1">TODAY()</f>
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Z10" s="10">
         <f ca="1">TODAY()</f>
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="AB10" t="s">
         <v>31</v>
@@ -1847,17 +2414,17 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -1872,11 +2439,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1885,16 +2450,26 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -1914,36 +2489,75 @@
         <v>84</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1955,28 +2569,653 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" t="s">
         <v>95</v>
       </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Z6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Z7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="14">
+        <v>44200</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="14">
+        <v>44201</v>
+      </c>
+      <c r="K9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="14">
+        <v>44201</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="14">
+        <v>44201</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="Z9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="14">
+        <v>44201</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="14"/>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" t="s">
+        <v>170</v>
+      </c>
+      <c r="P12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="W13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W14" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6991E2D-83B6-4A08-8A63-52750B85A96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7148-972A-4D43-9F38-92CBE429D061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
     <sheet name="Supplier" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="393">
   <si>
     <t>UserName</t>
   </si>
@@ -694,76 +696,526 @@
     <t>1/4/2021</t>
   </si>
   <si>
-    <t>2000456508</t>
-  </si>
-  <si>
-    <t>2000456509</t>
-  </si>
-  <si>
-    <t>2000456510</t>
-  </si>
-  <si>
-    <t>2000456511</t>
-  </si>
-  <si>
-    <t>2000456514</t>
-  </si>
-  <si>
-    <t>2000456516</t>
-  </si>
-  <si>
-    <t>2000456517</t>
-  </si>
-  <si>
-    <t>2000456518</t>
-  </si>
-  <si>
-    <t>2000456521</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2000456522</t>
-  </si>
-  <si>
-    <t>2000456524</t>
-  </si>
-  <si>
-    <t>2000456525</t>
-  </si>
-  <si>
-    <t>2000456526</t>
-  </si>
-  <si>
-    <t>2000456528</t>
-  </si>
-  <si>
-    <t>2000456529</t>
-  </si>
-  <si>
-    <t>2000456530</t>
+    <t>TFS ID_ 1141 : Validate Business Key</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1152 : Validate Convert Acct Entity Code to Ship-to Acct</t>
+  </si>
+  <si>
+    <t>2000420865</t>
+  </si>
+  <si>
+    <t>2000391336</t>
+  </si>
+  <si>
+    <t>Member_1141_11302020</t>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>2000439894</t>
+  </si>
+  <si>
+    <t>CrmNumber</t>
+  </si>
+  <si>
+    <t>CrmNumber1</t>
+  </si>
+  <si>
+    <t>BusinessClassification</t>
   </si>
   <si>
     <t>2000141844</t>
   </si>
   <si>
+    <t>2000456739</t>
+  </si>
+  <si>
+    <t>2000456740</t>
+  </si>
+  <si>
+    <t>2000456741</t>
+  </si>
+  <si>
+    <t>2000456742</t>
+  </si>
+  <si>
+    <t>2000456745</t>
+  </si>
+  <si>
+    <t>2000456747</t>
+  </si>
+  <si>
+    <t>2000456748</t>
+  </si>
+  <si>
+    <t>2000456749</t>
+  </si>
+  <si>
+    <t>2000456752</t>
+  </si>
+  <si>
+    <t>2000456753</t>
+  </si>
+  <si>
     <t>No Run</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>2000456755</t>
+  </si>
+  <si>
+    <t>2000456756</t>
+  </si>
+  <si>
+    <t>2000456757</t>
+  </si>
+  <si>
+    <t>2000456759</t>
+  </si>
+  <si>
+    <t>2000456760</t>
+  </si>
+  <si>
+    <t>2000456761</t>
+  </si>
+  <si>
+    <t>AccountName2</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>PremierEndDate</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>PremierOwner</t>
+  </si>
+  <si>
+    <t>AcountStatus</t>
+  </si>
+  <si>
+    <t>CAMSFlag</t>
+  </si>
+  <si>
+    <t>ExcludeFromRoaster</t>
+  </si>
+  <si>
+    <t>BusinessKey</t>
+  </si>
+  <si>
+    <t>BKActive</t>
+  </si>
+  <si>
+    <t>SiebelID</t>
+  </si>
+  <si>
+    <t>SupplierRecord</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Stocksymbol</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CorporateRebate</t>
+  </si>
+  <si>
+    <t>RequireManualAG</t>
+  </si>
+  <si>
+    <t>AccountInfo</t>
+  </si>
+  <si>
+    <t>DEA</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Address Info</t>
+  </si>
+  <si>
+    <t>LocationNo</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>OverrideName</t>
+  </si>
+  <si>
+    <t>MainPhone</t>
+  </si>
+  <si>
+    <t>OtherPhone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>SiebelAddressID</t>
+  </si>
+  <si>
+    <t>FSRPTFlag</t>
+  </si>
+  <si>
+    <t>DoNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>ExternalAddessID</t>
+  </si>
+  <si>
+    <t>RecordChangeStatus</t>
+  </si>
+  <si>
+    <t>PremierRoaster</t>
+  </si>
+  <si>
+    <t>CurrentInternalRep</t>
+  </si>
+  <si>
+    <t>CurretFieldRep</t>
+  </si>
+  <si>
+    <t>FeeShareEligible</t>
+  </si>
+  <si>
+    <t>AccountNumbers</t>
+  </si>
+  <si>
+    <t>Lineofbussiness</t>
+  </si>
+  <si>
+    <t>MyInformation</t>
+  </si>
+  <si>
+    <t>PurchasingOfficerDetails</t>
+  </si>
+  <si>
+    <t>FacilityAuthorization</t>
+  </si>
+  <si>
+    <t>Override</t>
+  </si>
+  <si>
+    <t>Membership Provider config</t>
+  </si>
+  <si>
+    <t>MembershipProvider</t>
+  </si>
+  <si>
+    <t>MembershipProviderType</t>
+  </si>
+  <si>
+    <t>MembershipAttributeCode</t>
+  </si>
+  <si>
+    <t>DPExceptionReason</t>
+  </si>
+  <si>
+    <t>TopParent</t>
+  </si>
+  <si>
+    <t>IsTopParent</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>CorpParent</t>
+  </si>
+  <si>
+    <t>CorpParentStartDate</t>
+  </si>
+  <si>
+    <t>CorpParentOverride</t>
+  </si>
+  <si>
+    <t>FoodParentStartDate</t>
+  </si>
+  <si>
+    <t>FoodParentOverride</t>
+  </si>
+  <si>
+    <t>FBO</t>
+  </si>
+  <si>
+    <t>Food service parent</t>
+  </si>
+  <si>
+    <t>FBORelationDate</t>
+  </si>
+  <si>
+    <t>FBOManualOverride</t>
+  </si>
+  <si>
+    <t>FBOGPO</t>
+  </si>
+  <si>
+    <t>ReceiveDirectMail</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Create member with all available fields2</t>
+  </si>
+  <si>
+    <t>VerifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>VerifyPremierOwner</t>
+  </si>
+  <si>
+    <t>VerifyBKActive</t>
+  </si>
+  <si>
+    <t>Apara Care</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>ChangeRecordStatus</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>CorporateRebateStartDate</t>
+  </si>
+  <si>
+    <t>Fee Share</t>
+  </si>
+  <si>
+    <t>Create member with all available fields</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>Alternate Markets</t>
+  </si>
+  <si>
+    <t>Non-Healthcare</t>
+  </si>
+  <si>
+    <t>StockSymbol</t>
+  </si>
+  <si>
+    <t>Stock Symbol test</t>
+  </si>
+  <si>
+    <t>PaymentEntity</t>
+  </si>
+  <si>
+    <t>IsPaymentEntity</t>
+  </si>
+  <si>
+    <t>VerifyGroup</t>
+  </si>
+  <si>
+    <t>VerifyFacilityType</t>
+  </si>
+  <si>
+    <t>1 Senior Care</t>
+  </si>
+  <si>
+    <t>VerifyIsPaymentEntity</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Membe with all available fields</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>CorporateRebateFeeDate</t>
+  </si>
+  <si>
+    <t>Street2 test</t>
+  </si>
+  <si>
+    <t>Delivery info</t>
+  </si>
+  <si>
+    <t>DeliveryInfo</t>
+  </si>
+  <si>
+    <t>Delivery info test</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>OverrideName Test</t>
+  </si>
+  <si>
+    <t>MainPhone Test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>FSPOverride</t>
+  </si>
+  <si>
+    <t>456987123</t>
+  </si>
+  <si>
+    <t>5987642158</t>
+  </si>
+  <si>
+    <t>DEANumber</t>
+  </si>
+  <si>
+    <t>2/2/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7422:Create New Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>Membership Provider</t>
+  </si>
+  <si>
+    <t>MembershipProviderTypeOptions</t>
+  </si>
+  <si>
+    <t>Aggregation Affiliation</t>
+  </si>
+  <si>
+    <t>2000456969</t>
+  </si>
+  <si>
+    <t>868494489</t>
+  </si>
+  <si>
+    <t>ak4789509</t>
+  </si>
+  <si>
+    <t>1000155584</t>
+  </si>
+  <si>
+    <t>MembershipProviderStartDate</t>
+  </si>
+  <si>
+    <t>Program,DSH,Aggregation Affiliation,Affiliate Group,SOAR,N/A</t>
+  </si>
+  <si>
+    <t>DSH</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>SOAR</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7421:Create New Membership Provider with type "DSH"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7420:Create New Membership Provider with type "Program"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7423:Create New Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>Membership Provider With Program</t>
+  </si>
+  <si>
+    <t>Membership Provider With DSH</t>
+  </si>
+  <si>
+    <t>Membership Provider With AggregationAffiliation</t>
+  </si>
+  <si>
+    <t>Membership Provider With SOAR</t>
+  </si>
+  <si>
+    <t>2000457000</t>
+  </si>
+  <si>
+    <t>2000457001</t>
+  </si>
+  <si>
+    <t>2000457002</t>
+  </si>
+  <si>
+    <t>2000457003</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7474:Change Account status to Terminated for a Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>Change Status to Inactive for membership Provider With SOAR</t>
+  </si>
+  <si>
+    <t>Change Status to Terminated foMembership Provider With AggregationAffiliation</t>
+  </si>
+  <si>
+    <t>AccountStatus</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>2000457057</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
+  </si>
+  <si>
+    <t>New Business Partner</t>
+  </si>
+  <si>
+    <t>1000039759</t>
+  </si>
+  <si>
+    <t>2000457060</t>
+  </si>
+  <si>
+    <t>Business Partner</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_01_27_08_30_25</t>
-  </si>
-  <si>
-    <t>2021_01_27_08_30_26</t>
-  </si>
-  <si>
-    <t>2021_01_27_08_32_34</t>
+    <t>2000457077</t>
+  </si>
+  <si>
+    <t>2021_02_11_12_39_12</t>
+  </si>
+  <si>
+    <t>2000457078</t>
+  </si>
+  <si>
+    <t>2021_02_11_12_50_44</t>
   </si>
 </sst>
 </file>
@@ -773,7 +1225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,8 +1283,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,13 +1338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,10 +1388,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -963,9 +1449,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1278,26 +1802,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="107.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="107.6640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1343,19 +1867,19 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1372,16 +1896,16 @@
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1398,16 +1922,16 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1424,16 +1948,16 @@
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1450,13 +1974,13 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1473,13 +1997,13 @@
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1496,16 +2020,16 @@
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1522,13 +2046,13 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1545,16 +2069,16 @@
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1570,17 +2094,17 @@
       <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" t="s">
         <v>237</v>
       </c>
-      <c r="G11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1597,16 +2121,16 @@
         <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" t="s">
         <v>238</v>
       </c>
-      <c r="H12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1623,13 +2147,13 @@
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1646,13 +2170,13 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1669,16 +2193,16 @@
         <v>68</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1695,16 +2219,16 @@
         <v>68</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1721,13 +2245,13 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1744,70 +2268,64 @@
         <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -1819,21 +2337,21 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -1845,18 +2363,21 @@
         <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+        <v>242</v>
+      </c>
+      <c r="H22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -1868,21 +2389,21 @@
         <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -1894,24 +2415,21 @@
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>54</v>
@@ -1919,22 +2437,22 @@
       <c r="E25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>239</v>
+      <c r="F25" t="s">
+        <v>241</v>
       </c>
       <c r="G25" t="s">
         <v>242</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -1946,21 +2464,21 @@
         <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -1971,22 +2489,22 @@
       <c r="E27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F27" t="s">
-        <v>237</v>
+      <c r="F27" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -1998,21 +2516,21 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2024,21 +2542,21 @@
         <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2050,21 +2568,21 @@
         <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -2076,18 +2594,278 @@
         <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>242</v>
+      </c>
+      <c r="H33" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>388</v>
+      </c>
+      <c r="G41" t="s">
+        <v>392</v>
+      </c>
+      <c r="H41" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{804EB435-E1E4-4DA8-A270-78804C4F9F15}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2098,57 +2876,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:CN28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="AA2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="107.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="23.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="16.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
-    <col min="10" max="15" customWidth="true" style="6" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="17.5703125" collapsed="true"/>
-    <col min="17" max="18" style="6" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="6" width="12.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="31.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="6" width="21.42578125" collapsed="true"/>
-    <col min="25" max="25" style="6" width="9.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="6" width="23.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="6" width="26.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="21.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="30.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="23.28515625" collapsed="true"/>
-    <col min="33" max="33" style="6" width="9.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="35" max="36" style="6" width="9.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
-    <col min="38" max="40" style="6" width="9.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="24.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
-    <col min="43" max="44" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="16.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="15.140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="25.5703125" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
-    <col min="50" max="16384" style="6" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
+    <col min="48" max="49" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
+    <col min="69" max="75" style="6" width="9.109375" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
+    <col min="77" max="88" style="6" width="9.109375" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="91" max="16384" style="6" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
@@ -2161,143 +2972,272 @@
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AV1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA1" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB1" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2310,80 +3250,72 @@
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AD2" s="15">
         <v>44188</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR2" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS2" s="9" t="s">
         <v>73</v>
@@ -2391,8 +3323,17 @@
       <c r="AT2" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2405,53 +3346,45 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>78</v>
@@ -2459,29 +3392,29 @@
       <c r="AB3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR3" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>73</v>
@@ -2489,14 +3422,23 @@
       <c r="AT3" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU3" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2509,53 +3451,45 @@
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="Y4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>78</v>
@@ -2563,29 +3497,29 @@
       <c r="AB4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR4" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS4" s="9" t="s">
         <v>73</v>
@@ -2593,14 +3527,23 @@
       <c r="AT4" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU4" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV4" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY4" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2613,74 +3556,66 @@
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="Z5" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR5" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS5" s="9" t="s">
         <v>73</v>
@@ -2688,8 +3623,17 @@
       <c r="AT5" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2702,77 +3646,69 @@
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="Y6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AG6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AH6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR6" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS6" s="9" t="s">
         <v>73</v>
@@ -2780,8 +3716,17 @@
       <c r="AT6" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2794,74 +3739,66 @@
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="Y7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AH7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AI7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR7" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS7" s="9" t="s">
         <v>73</v>
@@ -2869,8 +3806,17 @@
       <c r="AT7" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2883,93 +3829,94 @@
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="V8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="W8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="14" t="s">
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="AC8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AD8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AF8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AG8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AH8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AK8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AI8" s="9" t="s">
+      <c r="AL8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AM8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AN8" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="AO8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AR8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AU8" s="9" t="s">
+      <c r="AW8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX8" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2982,99 +3929,100 @@
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14" t="s">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="AC9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AD9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="9" t="s">
+      <c r="AF9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AG9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AH9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AL9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AM9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AK9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN9" s="10" t="s">
+      <c r="AN9" s="16" t="s">
         <v>78</v>
       </c>
       <c r="AO9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AQ9" s="9" t="s">
+      <c r="AP9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AU9" s="9" t="s">
+      <c r="AW9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX9" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3087,84 +4035,76 @@
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="V10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="W10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="Y10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="Z10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="AC10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AD10" s="15">
         <v>44188</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AF10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AG10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE10" s="9" t="s">
+      <c r="AH10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF10" s="10" t="s">
+      <c r="AI10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ10" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AQ10" s="10"/>
       <c r="AR10" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS10" s="9" t="s">
         <v>73</v>
@@ -3172,14 +4112,23 @@
       <c r="AT10" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU10" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV10" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY10" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3192,56 +4141,48 @@
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="U11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="V11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="W11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="X11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="Y11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="Z11" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>78</v>
@@ -3249,29 +4190,29 @@
       <c r="AB11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AC11" s="9" t="s">
+      <c r="AC11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="9" t="s">
+      <c r="AG11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE11" s="9" t="s">
+      <c r="AH11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF11" s="10" t="s">
+      <c r="AI11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ11" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR11" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS11" s="9" t="s">
         <v>73</v>
@@ -3279,14 +4220,23 @@
       <c r="AT11" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU11" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY11" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3299,80 +4249,72 @@
       <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="T12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="U12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="V12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="W12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="X12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="Z12" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC12" s="9" t="s">
+      <c r="AC12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="9" t="s">
+      <c r="AG12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE12" s="9" t="s">
+      <c r="AH12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AI12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR12" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS12" s="9" t="s">
         <v>73</v>
@@ -3380,8 +4322,17 @@
       <c r="AT12" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3394,83 +4345,75 @@
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="U13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="V13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="W13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="X13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="Y13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="Z13" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC13" s="9" t="s">
+      <c r="AC13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD13" s="9" t="s">
+      <c r="AG13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE13" s="9" t="s">
+      <c r="AH13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AI13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR13" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS13" s="9" t="s">
         <v>73</v>
@@ -3478,8 +4421,17 @@
       <c r="AT13" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3492,83 +4444,75 @@
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="V14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="W14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="X14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="Y14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="Z14" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AC14" s="9" t="s">
+      <c r="AC14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD14" s="9" t="s">
+      <c r="AG14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AH14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF14" s="10" t="s">
+      <c r="AI14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AO14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="AR14" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS14" s="9" t="s">
         <v>73</v>
@@ -3576,8 +4520,17 @@
       <c r="AT14" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3590,89 +4543,81 @@
       <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="Y15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="Z15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AA15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="14" t="s">
+      <c r="AC15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AD15" s="15">
         <v>44188</v>
       </c>
-      <c r="AC15" s="9" t="s">
+      <c r="AF15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AG15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE15" s="9" t="s">
+      <c r="AH15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF15" s="10" t="s">
+      <c r="AI15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="16"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="11"/>
-      <c r="AO15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="11"/>
       <c r="AR15" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS15" s="9" t="s">
         <v>73</v>
@@ -3680,14 +4625,23 @@
       <c r="AT15" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU15" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3700,91 +4654,83 @@
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="S16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="T16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="V16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="W16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="X16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="Y16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="14" t="s">
+      <c r="Z16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="AA16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="AC16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AD16" s="15">
         <v>44188</v>
       </c>
-      <c r="AC16" s="9" t="s">
+      <c r="AF16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="9" t="s">
+      <c r="AG16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="9" t="s">
+      <c r="AH16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AI16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="16"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="16"/>
       <c r="AM16" s="11"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="10"/>
       <c r="AR16" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AS16" s="9" t="s">
         <v>73</v>
@@ -3792,14 +4738,23 @@
       <c r="AT16" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="AU16" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AV16" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AW16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY16" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3812,93 +4767,96 @@
       <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="P17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="R17" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="T17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="V17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="W17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="X17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="Y17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="Z17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="14" t="s">
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AD17" s="15">
         <v>44188</v>
       </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9" t="s">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF17" s="10" t="s">
+      <c r="AI17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="16"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="16"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="16"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+    </row>
+    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3912,17 +4870,571 @@
         <v>2</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+    </row>
+    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I19" t="s">
+        <v>225</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="1"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF20" s="9"/>
+    </row>
+    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB21" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>317</v>
+      </c>
+      <c r="BJ21" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="BK21" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM21"/>
+      <c r="BN21" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>336</v>
+      </c>
+      <c r="BQ21" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>341</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>343</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>344</v>
+      </c>
+      <c r="BW21" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="BX21" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY21" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="BZ21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CD21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CE21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>357</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>356</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="CJ21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK22" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL22" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="CM22" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK23" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL23" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM23" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK24" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL24" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="CM24" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK25" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL25" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM25" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK26" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL26" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM26" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="CN26" s="43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="CK27" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL27" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="CM27" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="CN27" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y28" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD28" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="BY21" r:id="rId1" xr:uid="{208FF12D-3940-48AF-8E30-083559DDEF80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3931,36 +5443,36 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="61.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="90.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="90.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="21.5546875" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -4040,7 +5552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4091,7 +5603,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4145,7 +5657,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4201,7 +5713,7 @@
       </c>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4252,7 +5764,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4310,7 +5822,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4368,7 +5880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4411,7 +5923,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4470,7 +5982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4516,7 +6028,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4561,7 +6073,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4609,7 +6121,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4659,7 +6171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4711,4 +6223,1572 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE558F-C459-456D-AD58-204950C9CEB8}">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622F4C1-82C7-4AD4-AD9C-9370C25BC4E2}">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7148-972A-4D43-9F38-92CBE429D061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD02A6-165A-49B9-ABF5-49F2934B00F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="390">
   <si>
     <t>UserName</t>
   </si>
@@ -1206,16 +1206,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2000457077</t>
-  </si>
-  <si>
-    <t>2021_02_11_12_39_12</t>
-  </si>
-  <si>
     <t>2000457078</t>
-  </si>
-  <si>
-    <t>2021_02_11_12_50_44</t>
   </si>
 </sst>
 </file>
@@ -1804,21 +1795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="107.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="107.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2856,11 +2847,8 @@
       <c r="F41" t="s">
         <v>388</v>
       </c>
-      <c r="G41" t="s">
-        <v>392</v>
-      </c>
       <c r="H41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2884,79 +2872,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="48" max="49" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="69" max="75" style="6" width="9.109375" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="77" max="88" style="6" width="9.109375" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="91" max="16384" style="6" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="21.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="4.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="26.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="30.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="23.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="24.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="8.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="6" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="26.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="27" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="25" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="29" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="15.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="25.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="17.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="9.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="14.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="32" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="16.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="75" width="9.109375" style="6" collapsed="1"/>
+    <col min="76" max="76" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="88" width="9.109375" style="6" collapsed="1"/>
+    <col min="89" max="89" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="16384" width="9.109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.3">
@@ -5448,28 +5436,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="90.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="90.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -6227,7 +6215,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE558F-C459-456D-AD58-204950C9CEB8}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F117" sqref="F117"/>
@@ -6235,15 +6223,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -7020,7 +7008,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622F4C1-82C7-4AD4-AD9C-9370C25BC4E2}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7028,15 +7016,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="399">
   <si>
     <t>UserName</t>
   </si>
@@ -1207,6 +1207,33 @@
   </si>
   <si>
     <t>2000457078</t>
+  </si>
+  <si>
+    <t>2000457080</t>
+  </si>
+  <si>
+    <t>2021_02_11_01_51_00</t>
+  </si>
+  <si>
+    <t>2000457081</t>
+  </si>
+  <si>
+    <t>2021_02_11_02_01_23</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2021_02_11_04_42_02</t>
+  </si>
+  <si>
+    <t>2021_02_11_04_43_56</t>
+  </si>
+  <si>
+    <t>2021_02_11_04_45_23</t>
+  </si>
+  <si>
+    <t>2021_02_11_07_29_06</t>
   </si>
 </sst>
 </file>
@@ -1801,15 +1828,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="107.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="107.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2845,10 +2872,13 @@
         <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>394</v>
+      </c>
+      <c r="G41" t="s">
+        <v>398</v>
       </c>
       <c r="H41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2872,79 +2902,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="4.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="26.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="30.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="23.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="8.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="6" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="26.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="27" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="25" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="29" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="15.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="25.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="17.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="9.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="32" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="16.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="75" width="9.109375" style="6" collapsed="1"/>
-    <col min="76" max="76" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="88" width="9.109375" style="6" collapsed="1"/>
-    <col min="89" max="89" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="16384" width="9.109375" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
+    <col min="48" max="49" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
+    <col min="69" max="75" style="6" width="9.109375" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
+    <col min="77" max="88" style="6" width="9.109375" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="91" max="16384" style="6" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.3">
@@ -5436,28 +5466,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="90.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="90.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -6215,7 +6245,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE558F-C459-456D-AD58-204950C9CEB8}">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F117" sqref="F117"/>
@@ -6223,15 +6253,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -7008,7 +7038,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622F4C1-82C7-4AD4-AD9C-9370C25BC4E2}">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7016,15 +7046,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD02A6-165A-49B9-ABF5-49F2934B00F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCCA8C-0752-414E-9239-C0A2E106D8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="409">
   <si>
     <t>UserName</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ParticipationType</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Recordstatus</t>
   </si>
   <si>
@@ -699,15 +696,6 @@
     <t>TFS ID_ 1141 : Validate Business Key</t>
   </si>
   <si>
-    <t>TFS ID_ 1152 : Validate Convert Acct Entity Code to Ship-to Acct</t>
-  </si>
-  <si>
-    <t>2000420865</t>
-  </si>
-  <si>
-    <t>2000391336</t>
-  </si>
-  <si>
     <t>Member_1141_11302020</t>
   </si>
   <si>
@@ -732,33 +720,6 @@
     <t>2000141844</t>
   </si>
   <si>
-    <t>2000456739</t>
-  </si>
-  <si>
-    <t>2000456740</t>
-  </si>
-  <si>
-    <t>2000456741</t>
-  </si>
-  <si>
-    <t>2000456742</t>
-  </si>
-  <si>
-    <t>2000456745</t>
-  </si>
-  <si>
-    <t>2000456747</t>
-  </si>
-  <si>
-    <t>2000456748</t>
-  </si>
-  <si>
-    <t>2000456749</t>
-  </si>
-  <si>
-    <t>2000456752</t>
-  </si>
-  <si>
     <t>2000456753</t>
   </si>
   <si>
@@ -1071,9 +1032,6 @@
     <t>OverrideName Test</t>
   </si>
   <si>
-    <t>MainPhone Test</t>
-  </si>
-  <si>
     <t>test@test.com</t>
   </si>
   <si>
@@ -1152,18 +1110,9 @@
     <t>Membership Provider With SOAR</t>
   </si>
   <si>
-    <t>2000457000</t>
-  </si>
-  <si>
     <t>2000457001</t>
   </si>
   <si>
-    <t>2000457002</t>
-  </si>
-  <si>
-    <t>2000457003</t>
-  </si>
-  <si>
     <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
   </si>
   <si>
@@ -1185,9 +1134,6 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>2000457057</t>
-  </si>
-  <si>
     <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
   </si>
   <si>
@@ -1197,43 +1143,127 @@
     <t>1000039759</t>
   </si>
   <si>
-    <t>2000457060</t>
-  </si>
-  <si>
     <t>Business Partner</t>
   </si>
   <si>
+    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>accountName2</t>
+  </si>
+  <si>
+    <t>verifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>stockSymbol</t>
+  </si>
+  <si>
+    <t>deliveryInfo</t>
+  </si>
+  <si>
+    <t>mainPhone</t>
+  </si>
+  <si>
+    <t>receiveDirectMail</t>
+  </si>
+  <si>
+    <t>doNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>verifyIsTopParent</t>
+  </si>
+  <si>
+    <t>overrideName</t>
+  </si>
+  <si>
+    <t>Account name2</t>
+  </si>
+  <si>
+    <t>Test exchange</t>
+  </si>
+  <si>
+    <t>Override name</t>
+  </si>
+  <si>
+    <t>memberRecord</t>
+  </si>
+  <si>
+    <t>verifyHIBCC</t>
+  </si>
+  <si>
+    <t>verifyNoNewProducts</t>
+  </si>
+  <si>
+    <t>Amalgamated Transit Union</t>
+  </si>
+  <si>
+    <t>verifyTopParent</t>
+  </si>
+  <si>
+    <t>2000462210</t>
+  </si>
+  <si>
+    <t>2000462213</t>
+  </si>
+  <si>
+    <t>2000462215</t>
+  </si>
+  <si>
+    <t>2000462216</t>
+  </si>
+  <si>
+    <t>2000462217</t>
+  </si>
+  <si>
+    <t>2000462220</t>
+  </si>
+  <si>
+    <t>2000462233</t>
+  </si>
+  <si>
+    <t>2000462234</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>2000462250</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2000457078</t>
-  </si>
-  <si>
-    <t>2000457080</t>
-  </si>
-  <si>
-    <t>2021_02_11_01_51_00</t>
-  </si>
-  <si>
-    <t>2000457081</t>
-  </si>
-  <si>
-    <t>2021_02_11_02_01_23</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2021_02_11_04_42_02</t>
-  </si>
-  <si>
-    <t>2021_02_11_04_43_56</t>
-  </si>
-  <si>
-    <t>2021_02_11_04_45_23</t>
-  </si>
-  <si>
-    <t>2021_02_11_07_29_06</t>
+    <t>2021_02_22_12_28_37</t>
+  </si>
+  <si>
+    <t>TFS_ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
+  </si>
+  <si>
+    <t>Account name changed with LM</t>
+  </si>
+  <si>
+    <t>Update account name2 with LM</t>
+  </si>
+  <si>
+    <t>5987642159</t>
+  </si>
+  <si>
+    <t>198 33rd St</t>
+  </si>
+  <si>
+    <t>VerifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>1000194141</t>
+  </si>
+  <si>
+    <t>2000424828</t>
+  </si>
+  <si>
+    <t>2000462269</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1505,6 +1535,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1820,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,31 +1873,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1873,28 +1905,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1902,25 +1934,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1928,25 +1960,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,25 +1986,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1980,22 +2012,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2003,22 +2035,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2026,25 +2058,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2052,22 +2084,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2075,25 +2107,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2101,25 +2133,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2127,25 +2159,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2153,22 +2185,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2176,22 +2208,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,25 +2231,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2225,25 +2257,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2251,22 +2283,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2274,616 +2306,633 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>219</v>
+      <c r="B19" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>220</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+      <c r="H20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>241</v>
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>213</v>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>373</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>375</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>382</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>376</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>383</v>
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>369</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
-        <v>12</v>
+      <c r="D41" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="G41" t="s">
-        <v>398</v>
-      </c>
-      <c r="H41" t="s">
-        <v>392</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2894,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:CN28"/>
+  <dimension ref="A1:CO28"/>
   <sheetViews>
-    <sheetView topLeftCell="AA2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,12 +3026,12 @@
     <col min="91" max="16384" style="6" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -2991,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -3003,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>5</v>
@@ -3015,1618 +3064,1622 @@
         <v>8</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="T1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="Y1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="AD1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="AI1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AP1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="AY1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="BA1" s="31" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BB1" s="31" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="BC1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="BD1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="CD1" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="CE1" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="CF1" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="CG1" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="CH1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CI1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="CI1" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="CJ1" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="CK1" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="CL1" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="CM1" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="CN1" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD2" s="15">
         <v>44188</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="M5" s="43"/>
       <c r="S5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AC9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC10" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD10" s="15">
         <v>44188</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD15" s="15">
         <v>44188</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
@@ -4635,109 +4688,109 @@
       <c r="AN15" s="16"/>
       <c r="AO15" s="11"/>
       <c r="AR15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD16" s="15">
         <v>44188</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
@@ -4748,39 +4801,39 @@
       <c r="AP16" s="11"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>2</v>
@@ -4788,83 +4841,83 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="19" t="s">
+      <c r="R17" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="S17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y17" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="15">
         <v>44188</v>
       </c>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
@@ -4874,15 +4927,15 @@
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>2</v>
@@ -4898,558 +4951,611 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" t="s">
         <v>221</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I19" t="s">
-        <v>225</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" s="1"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF20" s="9"/>
-    </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AR20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB20" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ20" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="BK20" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN20" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>323</v>
+      </c>
+      <c r="BQ20" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>325</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV20" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="BW20" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX20" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY20" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="BZ20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>342</v>
+      </c>
+      <c r="CI20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CJ20" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="40" t="s">
+      <c r="E21" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK21" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL21" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CM21" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>350</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AO21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AR21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>313</v>
-      </c>
-      <c r="BB21" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ21" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="BK21" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>328</v>
-      </c>
-      <c r="BM21"/>
-      <c r="BN21" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>336</v>
-      </c>
-      <c r="BQ21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>338</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>342</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>343</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>344</v>
-      </c>
-      <c r="BW21" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="BX21" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="BY21" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="BZ21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CA21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CB21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CC21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CD21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CE21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CF21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>357</v>
-      </c>
-      <c r="CH21" t="s">
-        <v>356</v>
-      </c>
-      <c r="CI21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CJ21" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>365</v>
-      </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="CK22" s="41" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="CL22" s="6" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="CM22" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="S23" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK23" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL23" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM23" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>352</v>
       </c>
-      <c r="CK23" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL23" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="CM23" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>351</v>
-      </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK24" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CM24" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>358</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="CK24" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL24" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="CM24" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>366</v>
-      </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="CK25" s="41" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="CL25" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="CM25" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="CN25" s="43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>375</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="CK26" s="41" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="CL26" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM26" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="CN26" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="CM26" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="CN26" s="43" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>376</v>
+    </row>
+    <row r="27" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>358</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="CK27" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL27" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="CM27" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="CN27" s="43" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA27" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="CO27" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
+      <c r="E28" s="27" t="s">
+        <v>222</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>387</v>
+        <v>401</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y28" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA28" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD28" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF28" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X28" s="6">
+        <v>22020</v>
+      </c>
+      <c r="BA28" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="9"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="9"/>
+      <c r="BQ28" s="9"/>
+      <c r="BR28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS28" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU28" s="9"/>
+      <c r="BV28" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="BW28" s="9"/>
+      <c r="BX28" s="9"/>
+      <c r="BY28" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BY21" r:id="rId1" xr:uid="{208FF12D-3940-48AF-8E30-083559DDEF80}"/>
+    <hyperlink ref="BY20" r:id="rId1" xr:uid="{208FF12D-3940-48AF-8E30-083559DDEF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5458,44 +5564,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="90.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5504,114 +5633,177 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5621,48 +5813,48 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -5672,54 +5864,54 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" t="s">
         <v>161</v>
       </c>
-      <c r="K4" t="s">
-        <v>162</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5727,52 +5919,52 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -5782,52 +5974,52 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="N6" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5837,55 +6029,55 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Z6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5895,351 +6087,482 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Z7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L8" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="22">
         <v>44201</v>
       </c>
       <c r="K9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="Z9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="S10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="T10" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="1"/>
       <c r="N11" s="22"/>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="S11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" t="s">
         <v>200</v>
       </c>
-      <c r="I12" t="s">
+      <c r="P12" t="s">
         <v>201</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="T12" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="T12" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" t="s">
         <v>207</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="T13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="U13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="U13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="23" t="s">
+      <c r="W13" t="s">
         <v>211</v>
       </c>
-      <c r="W13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" t="s">
         <v>200</v>
       </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
       <c r="P14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="T14" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB15" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF15" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM15" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN15" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS15" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AN15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6266,7 +6589,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,15 +6597,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,20 +6613,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6311,47 +6634,47 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6359,23 +6682,23 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6383,169 +6706,169 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6876,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6884,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +6892,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6577,7 +6900,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6585,7 +6908,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6593,7 +6916,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6601,86 +6924,86 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F65">
         <v>86</v>
@@ -6688,346 +7011,346 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +7382,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7067,15 +7390,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7083,20 +7406,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7104,47 +7427,47 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7152,23 +7475,23 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7176,163 +7499,163 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7340,7 +7663,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -7348,7 +7671,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -7356,7 +7679,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -7364,7 +7687,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -7372,7 +7695,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -7380,7 +7703,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7388,86 +7711,86 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F65">
         <v>86</v>
@@ -7475,334 +7798,334 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCCA8C-0752-414E-9239-C0A2E106D8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137DD4B-107F-447A-BADD-2020589D33FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
     <sheet name="Supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="376">
   <si>
     <t>UserName</t>
   </si>
@@ -699,15 +698,6 @@
     <t>Member_1141_11302020</t>
   </si>
   <si>
-    <t>03/09/2020</t>
-  </si>
-  <si>
-    <t>Acute</t>
-  </si>
-  <si>
-    <t>2000439894</t>
-  </si>
-  <si>
     <t>CrmNumber</t>
   </si>
   <si>
@@ -750,69 +740,27 @@
     <t>AccountName2</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>PremierEndDate</t>
-  </si>
-  <si>
-    <t>FacilityType</t>
-  </si>
-  <si>
-    <t>PremierOwner</t>
-  </si>
-  <si>
     <t>AcountStatus</t>
   </si>
   <si>
-    <t>CAMSFlag</t>
-  </si>
-  <si>
     <t>ExcludeFromRoaster</t>
   </si>
   <si>
-    <t>BusinessKey</t>
-  </si>
-  <si>
-    <t>BKActive</t>
-  </si>
-  <si>
-    <t>SiebelID</t>
-  </si>
-  <si>
     <t>SupplierRecord</t>
   </si>
   <si>
     <t>Ownership</t>
   </si>
   <si>
-    <t>Stocksymbol</t>
-  </si>
-  <si>
     <t>Exchange</t>
   </si>
   <si>
     <t>CorporateRebate</t>
   </si>
   <si>
-    <t>RequireManualAG</t>
-  </si>
-  <si>
-    <t>AccountInfo</t>
-  </si>
-  <si>
-    <t>DEA</t>
-  </si>
-  <si>
     <t>HIN</t>
   </si>
   <si>
-    <t>Address Info</t>
-  </si>
-  <si>
-    <t>LocationNo</t>
-  </si>
-  <si>
     <t>Street2</t>
   </si>
   <si>
@@ -834,9 +782,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>SiebelAddressID</t>
-  </si>
-  <si>
     <t>FSRPTFlag</t>
   </si>
   <si>
@@ -846,87 +791,15 @@
     <t>ExternalAddessID</t>
   </si>
   <si>
-    <t>RecordChangeStatus</t>
-  </si>
-  <si>
-    <t>PremierRoaster</t>
-  </si>
-  <si>
-    <t>CurrentInternalRep</t>
-  </si>
-  <si>
-    <t>CurretFieldRep</t>
-  </si>
-  <si>
-    <t>FeeShareEligible</t>
-  </si>
-  <si>
-    <t>AccountNumbers</t>
-  </si>
-  <si>
-    <t>Lineofbussiness</t>
-  </si>
-  <si>
-    <t>MyInformation</t>
-  </si>
-  <si>
-    <t>PurchasingOfficerDetails</t>
-  </si>
-  <si>
-    <t>FacilityAuthorization</t>
-  </si>
-  <si>
-    <t>Override</t>
-  </si>
-  <si>
-    <t>Membership Provider config</t>
-  </si>
-  <si>
-    <t>MembershipProvider</t>
-  </si>
-  <si>
     <t>MembershipProviderType</t>
   </si>
   <si>
-    <t>MembershipAttributeCode</t>
-  </si>
-  <si>
-    <t>DPExceptionReason</t>
-  </si>
-  <si>
-    <t>TopParent</t>
-  </si>
-  <si>
     <t>IsTopParent</t>
   </si>
   <si>
-    <t>Sponsor</t>
-  </si>
-  <si>
-    <t>CorpParent</t>
-  </si>
-  <si>
-    <t>CorpParentStartDate</t>
-  </si>
-  <si>
     <t>CorpParentOverride</t>
   </si>
   <si>
-    <t>FoodParentStartDate</t>
-  </si>
-  <si>
-    <t>FoodParentOverride</t>
-  </si>
-  <si>
-    <t>FBO</t>
-  </si>
-  <si>
-    <t>Food service parent</t>
-  </si>
-  <si>
-    <t>FBORelationDate</t>
-  </si>
-  <si>
     <t>FBOManualOverride</t>
   </si>
   <si>
@@ -936,9 +809,6 @@
     <t>ReceiveDirectMail</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Create member with all available fields2</t>
   </si>
   <si>
@@ -963,12 +833,6 @@
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>CorporateRebateStartDate</t>
-  </si>
-  <si>
-    <t>Fee Share</t>
-  </si>
-  <si>
     <t>Create member with all available fields</t>
   </si>
   <si>
@@ -990,9 +854,6 @@
     <t>PaymentEntity</t>
   </si>
   <si>
-    <t>IsPaymentEntity</t>
-  </si>
-  <si>
     <t>VerifyGroup</t>
   </si>
   <si>
@@ -1017,9 +878,6 @@
     <t>Street2 test</t>
   </si>
   <si>
-    <t>Delivery info</t>
-  </si>
-  <si>
     <t>DeliveryInfo</t>
   </si>
   <si>
@@ -1230,40 +1088,82 @@
     <t>Pharmacy</t>
   </si>
   <si>
-    <t>2000462250</t>
+    <t>Account name changed with LM</t>
+  </si>
+  <si>
+    <t>Update account name2 with LM</t>
+  </si>
+  <si>
+    <t>5987642159</t>
+  </si>
+  <si>
+    <t>198 33rd St</t>
+  </si>
+  <si>
+    <t>VerifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>1000194141</t>
+  </si>
+  <si>
+    <t>2000424828</t>
+  </si>
+  <si>
+    <t>corp\crmtest10</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>2000462290</t>
+  </si>
+  <si>
+    <t>https://crminternalstage.premierinc.com/PRESIT/main.aspx#884115409</t>
+  </si>
+  <si>
+    <t>CrmNumber2</t>
+  </si>
+  <si>
+    <t>CrmNumber3</t>
+  </si>
+  <si>
+    <t>2000444770</t>
+  </si>
+  <si>
+    <t>2000103171</t>
+  </si>
+  <si>
+    <t>Child Account Business Key cannot be activated when key is not active in Parent Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Parent Account Business Key cannot be deactivated when key is active in Child Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage1</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_02_22_12_28_37</t>
-  </si>
-  <si>
-    <t>TFS_ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
-  </si>
-  <si>
-    <t>Account name changed with LM</t>
-  </si>
-  <si>
-    <t>Update account name2 with LM</t>
-  </si>
-  <si>
-    <t>5987642159</t>
-  </si>
-  <si>
-    <t>198 33rd St</t>
-  </si>
-  <si>
-    <t>VerifyRecordChangeStatus</t>
-  </si>
-  <si>
-    <t>1000194141</t>
-  </si>
-  <si>
-    <t>2000424828</t>
-  </si>
-  <si>
-    <t>2000462269</t>
+    <t>2021_02_24_06_28_11</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Contact  with all available fields</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>RecordStatus</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1500,32 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1537,6 +1412,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1852,23 +1731,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="107.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="107.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1908,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1917,13 +1796,13 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
@@ -1933,8 +1812,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
+      <c r="B3" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1942,25 +1821,22 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1972,13 +1848,16 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>395</v>
+        <v>347</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1986,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1998,13 +1877,13 @@
         <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2012,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -2024,10 +1903,13 @@
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -2047,10 +1929,10 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2058,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -2070,13 +1952,10 @@
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" t="s">
-        <v>389</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2084,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2096,10 +1975,13 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2107,7 +1989,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -2119,13 +2001,10 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2133,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -2144,14 +2023,14 @@
       <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>228</v>
+      <c r="F11" t="s">
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2159,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -2170,14 +2049,14 @@
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
-        <v>228</v>
+      <c r="F12" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2185,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -2197,18 +2076,21 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -2220,18 +2102,18 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
+      <c r="B15" t="s">
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -2242,14 +2124,11 @@
       <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>228</v>
+      <c r="F15" t="s">
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" t="s">
-        <v>393</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2257,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -2269,21 +2148,21 @@
         <v>67</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
+      <c r="B17" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -2294,19 +2173,22 @@
       <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
-        <v>228</v>
+      <c r="F17" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>131</v>
+      <c r="B18" t="s">
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -2315,21 +2197,21 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>218</v>
+      <c r="B19" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -2341,47 +2223,44 @@
         <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>53</v>
@@ -2390,21 +2269,21 @@
         <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -2416,21 +2295,21 @@
         <v>67</v>
       </c>
       <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" t="s">
         <v>228</v>
-      </c>
-      <c r="G22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -2442,18 +2321,21 @@
         <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -2465,21 +2347,18 @@
         <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H24" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -2491,21 +2370,21 @@
         <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -2516,22 +2395,22 @@
       <c r="E26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>228</v>
+      <c r="F26" t="s">
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -2542,22 +2421,22 @@
       <c r="E27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F27" t="s">
-        <v>228</v>
+      <c r="F27" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -2569,21 +2448,21 @@
         <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
@@ -2595,21 +2474,21 @@
         <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -2621,21 +2500,21 @@
         <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -2647,21 +2526,21 @@
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -2673,47 +2552,47 @@
         <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
+      <c r="D33" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -2725,21 +2604,21 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -2751,21 +2630,21 @@
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -2777,21 +2656,21 @@
         <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -2803,21 +2682,21 @@
         <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -2829,21 +2708,21 @@
         <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>359</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>311</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
@@ -2855,21 +2734,21 @@
         <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>365</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -2881,53 +2760,79 @@
         <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>369</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>53</v>
+      <c r="D41" t="s">
+        <v>11</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>400</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
       </c>
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
+      <c r="D42" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2936,97 +2841,102 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{E8013668-29D5-4C19-A568-35D908452B7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:CO28"/>
+  <dimension ref="A1:CS28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="48" max="49" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="69" max="75" style="6" width="9.109375" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="77" max="88" style="6" width="9.109375" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="91" max="16384" style="6" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.88671875" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="36.5546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="4.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="30.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="23.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="22.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="6" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="26.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="24.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="27" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="25" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="29" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="53" width="15.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="17.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="15.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="9.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="14.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="32" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="16.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="79" width="9.109375" style="6" collapsed="1"/>
+    <col min="80" max="80" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="92" width="9.109375" style="6" collapsed="1"/>
+    <col min="93" max="93" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="9.109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -3040,274 +2950,286 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BE1" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BB1" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BE1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BH1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="BK1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="CM1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="BN1" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="CN1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CP1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>324</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="CA1" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CR1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="CS1" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3320,200 +3242,166 @@
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AE2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AH2" s="15">
         <v>44188</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AM2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9" t="s">
+      <c r="E3" s="27"/>
+      <c r="I3" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="X3" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="Z3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="AA3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="6">
+        <v>22020</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BW3" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+    </row>
+    <row r="4" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -3521,89 +3409,80 @@
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S4" s="9" t="s">
+      <c r="O4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AE4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AH4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AM4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AX4" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AY4" s="9" t="s">
@@ -3612,13 +3491,22 @@
       <c r="AZ4" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>31</v>
@@ -3626,90 +3514,104 @@
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M5" s="43"/>
-      <c r="S5" s="9" t="s">
+      <c r="O5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="AD5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AE5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AH5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AM5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AX5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AZ5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>31</v>
@@ -3717,92 +3619,90 @@
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S6" s="9" t="s">
+      <c r="O6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AE6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AH6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AK6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AL6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AM6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AX6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA6" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
@@ -3810,189 +3710,182 @@
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="O7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="AA7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AD7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AE7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AH7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AK7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AL7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS7" s="9" t="s">
+      <c r="AM7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU7" s="9" t="s">
+      <c r="AX7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="AZ7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA7" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="O8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="Y8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="Z8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="9" t="s">
+      <c r="AB8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AC8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AK8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AL8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT8" s="9" t="s">
-        <v>61</v>
+      <c r="AM8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>99</v>
@@ -4000,211 +3893,205 @@
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="O9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="Y9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="Z9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="AA9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14" t="s">
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AC9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF9" s="9" t="s">
+      <c r="AG9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH9" s="9" t="s">
+      <c r="AL9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AM9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AO9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AL9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM9" s="9" t="s">
+      <c r="AP9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AN9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AR9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AP9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR9" s="9" t="s">
+      <c r="AV9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AT9" s="9" t="s">
+      <c r="AX9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AW9" s="9" t="s">
+      <c r="BA9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AX9" s="9" t="s">
+      <c r="BB9" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="9" t="s">
+      <c r="O10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="W10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="Y10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="Z10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="AA10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="AB10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD10" s="15">
-        <v>44188</v>
-      </c>
-      <c r="AF10" s="9" t="s">
+      <c r="AH10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AK10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AL10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="9" t="s">
-        <v>62</v>
+      <c r="AM10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU10" s="9" t="s">
-        <v>72</v>
+        <v>101</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ10" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>31</v>
@@ -4212,92 +4099,81 @@
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="O11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="R11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="X11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="Y11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="Z11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="AA11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="AB11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z11" s="14" t="s">
+      <c r="AD11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" s="14" t="s">
+      <c r="AE11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AH11" s="15">
+        <v>44188</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AK11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AL11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS11" s="9" t="s">
+      <c r="AM11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW11" s="9" t="s">
+      <c r="AX11" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AY11" s="9" t="s">
@@ -4306,13 +4182,22 @@
       <c r="AZ11" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD11" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>31</v>
@@ -4320,95 +4205,107 @@
       <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="O12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="W12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="X12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="Y12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="Z12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="AA12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="AB12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z12" s="14" t="s">
+      <c r="AD12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AE12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF12" s="9" t="s">
+      <c r="AH12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG12" s="9" t="s">
+      <c r="AK12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH12" s="9" t="s">
+      <c r="AL12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS12" s="9" t="s">
+      <c r="AM12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU12" s="9" t="s">
+      <c r="AX12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV12" s="9" t="s">
+      <c r="AZ12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD12" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>120</v>
+      <c r="B13" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>31</v>
@@ -4416,98 +4313,95 @@
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="O13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="9" t="s">
+      <c r="W13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="X13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="Y13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="Z13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="AA13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="AB13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z13" s="14" t="s">
+      <c r="AD13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC13" s="14" t="s">
+      <c r="AE13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF13" s="9" t="s">
+      <c r="AH13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG13" s="9" t="s">
+      <c r="AK13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH13" s="9" t="s">
+      <c r="AL13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS13" s="9" t="s">
+      <c r="AM13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU13" s="9" t="s">
+      <c r="AX13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV13" s="9" t="s">
+      <c r="AZ13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW13" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -4515,98 +4409,98 @@
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="O14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="W14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="X14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="Y14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="Z14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="AB14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="AC14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z14" s="14" t="s">
+      <c r="AD14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC14" s="14" t="s">
+      <c r="AE14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF14" s="9" t="s">
+      <c r="AH14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG14" s="9" t="s">
+      <c r="AK14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH14" s="9" t="s">
+      <c r="AL14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS14" s="9" t="s">
+      <c r="AM14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU14" s="9" t="s">
+      <c r="AX14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AV14" s="9" t="s">
+      <c r="AZ14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AW14" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA14" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>106</v>
+      <c r="B15" t="s">
+        <v>134</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>31</v>
@@ -4614,95 +4508,80 @@
       <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="Y15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="Z15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="AB15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z15" s="14" t="s">
+      <c r="AD15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC15" s="14" t="s">
+      <c r="AE15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD15" s="15">
-        <v>44188</v>
-      </c>
-      <c r="AF15" s="9" t="s">
+      <c r="AH15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG15" s="9" t="s">
+      <c r="AK15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH15" s="9" t="s">
+      <c r="AL15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="11"/>
-      <c r="AR15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS15" s="9" t="s">
+      <c r="AM15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW15" s="9" t="s">
+      <c r="AX15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AY15" s="9" t="s">
@@ -4711,13 +4590,16 @@
       <c r="AZ15" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:93" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BA15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>31</v>
@@ -4725,97 +4607,86 @@
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="O16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="W16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="X16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="Y16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="Z16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="AA16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="AB16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="AC16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="AD16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC16" s="14" t="s">
+      <c r="AE16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AH16" s="15">
         <v>44188</v>
       </c>
-      <c r="AF16" s="9" t="s">
+      <c r="AJ16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG16" s="9" t="s">
+      <c r="AK16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH16" s="9" t="s">
+      <c r="AL16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="16"/>
+      <c r="AM16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS16" s="9" t="s">
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="11"/>
+      <c r="AV16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW16" s="9" t="s">
+      <c r="AX16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AY16" s="9" t="s">
@@ -4824,13 +4695,22 @@
       <c r="AZ16" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="BA16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>31</v>
@@ -4838,101 +4718,112 @@
       <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="O17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="9" t="s">
+      <c r="W17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="X17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="Y17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="Z17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="AA17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="AB17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="AC17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z17" s="14" t="s">
+      <c r="AD17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="14" t="s">
+      <c r="AE17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AH17" s="15">
         <v>44188</v>
       </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9" t="s">
+      <c r="AJ17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AK17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AL17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="16"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-    </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="AM17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD17" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>131</v>
+      <c r="B18" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>31</v>
@@ -4943,297 +4834,170 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-    </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="K18" s="9"/>
+      <c r="L18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>44188</v>
+      </c>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="16"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+    </row>
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+    </row>
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>218</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AO20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AR20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB20" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>304</v>
-      </c>
-      <c r="BJ20" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="BK20" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN20" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>323</v>
-      </c>
-      <c r="BQ20" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>325</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>328</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>329</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>330</v>
-      </c>
-      <c r="BV20" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="BW20" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="BX20" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="BY20" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="BZ20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CD20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CF20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>343</v>
-      </c>
-      <c r="CH20" t="s">
-        <v>342</v>
-      </c>
-      <c r="CI20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CJ20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="E20" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
@@ -5241,31 +5005,240 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK21" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL21" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="CM21" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF21" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>261</v>
+      </c>
+      <c r="BN21" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO21" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR21" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>277</v>
+      </c>
+      <c r="BU21" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>281</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>359</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ21" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="CA21" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="CB21" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="CC21" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CH21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CJ21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>296</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CN21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
@@ -5273,31 +5246,31 @@
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK22" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL22" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="CM22" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="E22" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO22" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP22" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ22" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -5305,31 +5278,31 @@
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK23" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL23" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="CM23" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="E23" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO23" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP23" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ23" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -5337,31 +5310,31 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK24" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL24" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="CM24" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="E24" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO24" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ24" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
         <v>99</v>
@@ -5369,34 +5342,31 @@
       <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK25" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL25" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="CM25" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="CN25" s="43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="E25" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO25" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP25" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ25" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>359</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>311</v>
       </c>
       <c r="C26" t="s">
         <v>99</v>
@@ -5404,34 +5374,34 @@
       <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK26" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="CL26" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="CM26" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="CN26" s="43" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>365</v>
+      <c r="E26" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO26" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP26" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ26" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR26" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -5439,123 +5409,85 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" s="9" t="s">
+      <c r="E27" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="CO27" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP27" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ27" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR27" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="Y27" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA27" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD27" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="CO27" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>400</v>
+      <c r="B28" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="U28" s="6" t="s">
+      <c r="I28" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V28" s="6" t="s">
+      <c r="Z28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W28" s="6" t="s">
+      <c r="AA28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X28" s="6">
-        <v>22020</v>
-      </c>
-      <c r="BA28" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
-      <c r="BG28" s="9"/>
-      <c r="BH28" s="9"/>
-      <c r="BI28" s="9"/>
-      <c r="BJ28" s="9"/>
-      <c r="BK28" s="9"/>
-      <c r="BL28" s="9"/>
-      <c r="BM28" s="9"/>
-      <c r="BN28" s="9"/>
-      <c r="BO28" s="9"/>
-      <c r="BP28" s="9"/>
-      <c r="BQ28" s="9"/>
-      <c r="BR28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="BS28" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="BT28" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="BU28" s="9"/>
-      <c r="BV28" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="BW28" s="9"/>
-      <c r="BX28" s="9"/>
-      <c r="BY28" s="9"/>
+      <c r="AB28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE28" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH28" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS28" s="23" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BY20" r:id="rId1" xr:uid="{208FF12D-3940-48AF-8E30-083559DDEF80}"/>
+    <hyperlink ref="CC21" r:id="rId1" xr:uid="{208FF12D-3940-48AF-8E30-083559DDEF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5566,57 +5498,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="82.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="34.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="4.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.3">
@@ -5699,67 +5631,67 @@
         <v>150</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="AB1" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="AC1" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="AD1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AE1" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="AF1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AG1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
       </c>
       <c r="AI1" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="AJ1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AK1" t="s">
         <v>30</v>
       </c>
       <c r="AL1" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AN1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AO1" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="AP1" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="AQ1" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="AR1" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="AS1" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="AT1" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="AU1" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
@@ -6429,38 +6361,38 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:47" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+    <row r="15" spans="1:47" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="J15" s="45" t="s">
+      <c r="I15" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="35" t="s">
         <v>161</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -6496,64 +6428,64 @@
       <c r="AA15" t="s">
         <v>174</v>
       </c>
-      <c r="AB15" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC15" s="44" t="s">
+      <c r="AB15" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC15" s="35" t="s">
         <v>62</v>
       </c>
       <c r="AD15" s="20" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="AE15" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF15" s="44" t="s">
-        <v>381</v>
+        <v>270</v>
+      </c>
+      <c r="AF15" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="AG15" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH15" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH15" s="35" t="s">
         <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="AJ15" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK15" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="AN15" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO15" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="AS15" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT15" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN15" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS15" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6567,1565 +6499,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE558F-C459-456D-AD58-204950C9CEB8}">
-  <dimension ref="A1:F114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B61" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B72" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B91" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B100" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B105" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B106" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622F4C1-82C7-4AD4-AD9C-9370C25BC4E2}">
-  <dimension ref="A1:F114"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B61" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B72" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B91" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>297</v>
+        <v>372</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137DD4B-107F-447A-BADD-2020589D33FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A73B7-EE2D-4856-BDD2-3FF7A4090013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="422">
   <si>
     <t>UserName</t>
   </si>
@@ -710,9 +710,6 @@
     <t>2000141844</t>
   </si>
   <si>
-    <t>2000456753</t>
-  </si>
-  <si>
     <t>No Run</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
     <t>Create member with all available fields</t>
   </si>
   <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
     <t>Alternate Markets</t>
   </si>
   <si>
@@ -968,9 +962,6 @@
     <t>Membership Provider With SOAR</t>
   </si>
   <si>
-    <t>2000457001</t>
-  </si>
-  <si>
     <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
   </si>
   <si>
@@ -1061,30 +1052,6 @@
     <t>verifyTopParent</t>
   </si>
   <si>
-    <t>2000462210</t>
-  </si>
-  <si>
-    <t>2000462213</t>
-  </si>
-  <si>
-    <t>2000462215</t>
-  </si>
-  <si>
-    <t>2000462216</t>
-  </si>
-  <si>
-    <t>2000462217</t>
-  </si>
-  <si>
-    <t>2000462220</t>
-  </si>
-  <si>
-    <t>2000462233</t>
-  </si>
-  <si>
-    <t>2000462234</t>
-  </si>
-  <si>
     <t>Pharmacy</t>
   </si>
   <si>
@@ -1118,9 +1085,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>2000462290</t>
-  </si>
-  <si>
     <t>https://crminternalstage.premierinc.com/PRESIT/main.aspx#884115409</t>
   </si>
   <si>
@@ -1148,22 +1112,196 @@
     <t>ErrorMessage1</t>
   </si>
   <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7608:Create a new contact and add job function and communication/publication</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4549:Verify once the Contact's relationship end date is updated then its job function and communications should get terminated</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4550:Verify once the contact is end dated then the related Contact Account Association should get terminated</t>
+  </si>
+  <si>
+    <t>TC7608</t>
+  </si>
+  <si>
+    <t>primaryAccount</t>
+  </si>
+  <si>
+    <t>1000155094</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>contactRelationshipEndDate</t>
+  </si>
+  <si>
+    <t>jobFunction</t>
+  </si>
+  <si>
+    <t>Bid Proposal Team</t>
+  </si>
+  <si>
+    <t>communicationPublication</t>
+  </si>
+  <si>
+    <t>Roster - Hierarchy Roster</t>
+  </si>
+  <si>
+    <t>contactRecordStatus</t>
+  </si>
+  <si>
+    <t>terminationStatus</t>
+  </si>
+  <si>
+    <t>TC4550</t>
+  </si>
+  <si>
+    <t>TC4549</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4548: Verify if duplicate contact account association cannot be created for any contact</t>
+  </si>
+  <si>
+    <t>A Contact Account Association record already exists for the current relationsh</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Billstra Pharmacy</t>
+  </si>
+  <si>
+    <t>7000552336</t>
+  </si>
+  <si>
+    <t>TC4548</t>
+  </si>
+  <si>
+    <t>TC6576</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5137:Restrict when user enters blank communication record in Contact account associations</t>
+  </si>
+  <si>
+    <t>7000552343</t>
+  </si>
+  <si>
+    <t>activeContact</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5136:Restrict when user enters blank job function in Contact account associations</t>
+  </si>
+  <si>
+    <t>TFS ID_ 6576:Verify Duplicate detection rule applies when Communication or Publication entered twice by the user</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>MembershipProvider</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>2000462464</t>
+  </si>
+  <si>
+    <t>contactEndDate</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1136: Validate deactivating a contact result in updating the contact end date and inactivating the contact account association records</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4547:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
+    <t>primaryAccount1</t>
+  </si>
+  <si>
+    <t>Billsby</t>
+  </si>
+  <si>
+    <t>No Contact Job Functions found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>errorMessage1</t>
+  </si>
+  <si>
+    <t>No Contact Communications found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>3/4/2021</t>
+  </si>
+  <si>
+    <t>2000462645</t>
+  </si>
+  <si>
+    <t>2000462646</t>
+  </si>
+  <si>
+    <t>2000462648</t>
+  </si>
+  <si>
+    <t>2000462649</t>
+  </si>
+  <si>
+    <t>2000462652</t>
+  </si>
+  <si>
+    <t>2000462655</t>
+  </si>
+  <si>
+    <t>2000462656</t>
+  </si>
+  <si>
+    <t>2000462657</t>
+  </si>
+  <si>
+    <t>2000462662</t>
+  </si>
+  <si>
+    <t>2000462663</t>
+  </si>
+  <si>
+    <t>7000552463</t>
+  </si>
+  <si>
+    <t>7000552464</t>
+  </si>
+  <si>
+    <t>7000552466</t>
+  </si>
+  <si>
+    <t>7000552467</t>
+  </si>
+  <si>
+    <t>7000552468</t>
+  </si>
+  <si>
+    <t>7000552469</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_02_24_06_28_11</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1111:Create Contact  with all available fields</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>RecordStatus</t>
+    <t>2021_03_10_09_33_39</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,8 +1396,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF505050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1302,6 +1446,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1340,7 +1490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1374,9 +1524,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1415,7 +1562,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1731,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,7 +1946,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
@@ -1796,24 +1959,24 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
         <v>225</v>
       </c>
-      <c r="G2" t="s">
-        <v>226</v>
-      </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>358</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1821,22 +1984,28 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
         <v>225</v>
       </c>
-      <c r="G3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1848,24 +2017,21 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
         <v>225</v>
       </c>
-      <c r="G4" t="s">
-        <v>226</v>
-      </c>
       <c r="H4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1877,21 +2043,21 @@
         <v>67</v>
       </c>
       <c r="F5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
         <v>225</v>
       </c>
-      <c r="G5" t="s">
-        <v>226</v>
-      </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1903,21 +2069,18 @@
         <v>67</v>
       </c>
       <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
         <v>225</v>
-      </c>
-      <c r="G6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1929,18 +2092,18 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
         <v>225</v>
-      </c>
-      <c r="G7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -1952,18 +2115,21 @@
         <v>67</v>
       </c>
       <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
         <v>225</v>
       </c>
-      <c r="G8" t="s">
-        <v>226</v>
+      <c r="H8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -1975,21 +2141,18 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
         <v>225</v>
-      </c>
-      <c r="G9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -2001,18 +2164,21 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
         <v>225</v>
       </c>
-      <c r="G10" t="s">
-        <v>226</v>
+      <c r="H10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -2023,22 +2189,22 @@
       <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
         <v>225</v>
       </c>
-      <c r="G11" t="s">
-        <v>226</v>
-      </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -2049,22 +2215,22 @@
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
         <v>225</v>
       </c>
-      <c r="G12" t="s">
-        <v>226</v>
-      </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -2076,21 +2242,18 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
         <v>225</v>
-      </c>
-      <c r="G13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -2102,18 +2265,18 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
         <v>225</v>
-      </c>
-      <c r="G14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -2124,19 +2287,22 @@
       <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" t="s">
         <v>225</v>
       </c>
-      <c r="G15" t="s">
-        <v>226</v>
+      <c r="H15" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -2147,22 +2313,22 @@
       <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" t="s">
         <v>225</v>
       </c>
-      <c r="G16" t="s">
-        <v>226</v>
-      </c>
       <c r="H16" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>218</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -2171,23 +2337,20 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
         <v>225</v>
-      </c>
-      <c r="G17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C18" t="s">
@@ -2200,17 +2363,17 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" t="s">
         <v>225</v>
-      </c>
-      <c r="G18" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C19" t="s">
@@ -2223,56 +2386,59 @@
         <v>132</v>
       </c>
       <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
         <v>225</v>
-      </c>
-      <c r="G19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>218</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" t="s">
         <v>225</v>
-      </c>
-      <c r="G21" t="s">
-        <v>226</v>
       </c>
       <c r="H21" t="s">
         <v>227</v>
@@ -2280,25 +2446,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>153</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
         <v>225</v>
-      </c>
-      <c r="G22" t="s">
-        <v>226</v>
       </c>
       <c r="H22" t="s">
         <v>228</v>
@@ -2306,74 +2472,74 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
         <v>225</v>
-      </c>
-      <c r="G23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
         <v>225</v>
       </c>
-      <c r="G24" t="s">
-        <v>226</v>
+      <c r="H24" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>170</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
         <v>225</v>
-      </c>
-      <c r="G25" t="s">
-        <v>226</v>
       </c>
       <c r="H25" t="s">
         <v>230</v>
@@ -2381,218 +2547,218 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>175</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
         <v>225</v>
       </c>
-      <c r="G26" t="s">
-        <v>226</v>
-      </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
         <v>225</v>
       </c>
-      <c r="G27" t="s">
-        <v>226</v>
-      </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
-        <v>226</v>
-      </c>
       <c r="H28" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>187</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
         <v>225</v>
       </c>
-      <c r="G29" t="s">
-        <v>226</v>
-      </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>193</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
         <v>225</v>
       </c>
-      <c r="G30" t="s">
-        <v>226</v>
-      </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>198</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
         <v>225</v>
       </c>
-      <c r="G31" t="s">
-        <v>226</v>
-      </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
         <v>225</v>
       </c>
-      <c r="G32" t="s">
-        <v>226</v>
-      </c>
       <c r="H32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>212</v>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
         <v>225</v>
       </c>
-      <c r="G33" t="s">
-        <v>226</v>
-      </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -2600,25 +2766,25 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" t="s">
         <v>225</v>
       </c>
-      <c r="G34" t="s">
-        <v>226</v>
-      </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -2626,25 +2792,25 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
         <v>225</v>
       </c>
-      <c r="G35" t="s">
-        <v>226</v>
-      </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -2652,25 +2818,25 @@
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
         <v>225</v>
       </c>
-      <c r="G36" t="s">
-        <v>226</v>
-      </c>
       <c r="H36" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -2678,25 +2844,25 @@
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
         <v>225</v>
       </c>
-      <c r="G37" t="s">
-        <v>226</v>
-      </c>
       <c r="H37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -2704,25 +2870,25 @@
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" t="s">
         <v>225</v>
       </c>
-      <c r="G38" t="s">
-        <v>226</v>
-      </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>311</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
@@ -2730,25 +2896,25 @@
       <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F39" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" t="s">
         <v>225</v>
       </c>
-      <c r="G39" t="s">
-        <v>226</v>
-      </c>
       <c r="H39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>312</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -2756,43 +2922,40 @@
       <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F40" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" t="s">
         <v>225</v>
       </c>
-      <c r="G40" t="s">
-        <v>226</v>
-      </c>
       <c r="H40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
+        <v>2</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="G41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,49 +2963,260 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" t="s">
         <v>225</v>
-      </c>
-      <c r="G42" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>372</v>
+      <c r="B43" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>374</v>
+        <v>358</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F49" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{E8013668-29D5-4C19-A568-35D908452B7C}"/>
+    <hyperlink ref="I3" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{E8013668-29D5-4C19-A568-35D908452B7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2851,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:CS28"/>
+  <dimension ref="A1:CT28"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2933,10 +3307,14 @@
     <col min="81" max="92" width="9.109375" style="6" collapsed="1"/>
     <col min="93" max="93" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
     <col min="94" max="94" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="9.109375" style="6" collapsed="1"/>
+    <col min="95" max="95" width="26.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="22.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="18.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="16384" width="9.109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -2956,19 +3334,19 @@
         <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>4</v>
@@ -3078,19 +3456,19 @@
       <c r="AU1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AV1" s="16" t="s">
         <v>70</v>
       </c>
       <c r="AW1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="16" t="s">
         <v>73</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>75</v>
       </c>
       <c r="BA1" s="8" t="s">
@@ -3105,131 +3483,134 @@
       <c r="BD1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="BH1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BF1" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="BH1" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BT1" t="s">
         <v>238</v>
       </c>
-      <c r="BR1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CL1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BU1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="CN1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CF1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="CP1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CN1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="CQ1" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CR1" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="CS1" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="CT1" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3253,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>28</v>
@@ -3286,13 +3667,13 @@
         <v>33</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="15">
-        <v>44188</v>
+      <c r="AH2" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>25</v>
@@ -3304,7 +3685,7 @@
         <v>41</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>62</v>
@@ -3324,29 +3705,38 @@
       <c r="BA2" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP2" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ2" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT2" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="26"/>
       <c r="I3" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>82</v>
@@ -3361,7 +3751,7 @@
         <v>22020</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
@@ -3380,23 +3770,32 @@
       <c r="BT3" s="9"/>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BX3" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="BY3" s="9"/>
-      <c r="BZ3" s="23" t="s">
-        <v>352</v>
+      <c r="BZ3" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="CA3" s="9"/>
       <c r="CB3" s="9"/>
       <c r="CC3" s="9"/>
-    </row>
-    <row r="4" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP3" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ3" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT3" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3413,17 +3812,17 @@
         <v>85</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>11</v>
@@ -3450,7 +3849,7 @@
         <v>33</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>119</v>
@@ -3459,7 +3858,7 @@
         <v>34</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>119</v>
@@ -3474,7 +3873,7 @@
         <v>41</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>62</v>
@@ -3500,8 +3899,17 @@
       <c r="BD4" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP4" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ4" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT4" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3518,17 +3926,17 @@
         <v>86</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>11</v>
@@ -3555,7 +3963,7 @@
         <v>33</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>119</v>
@@ -3564,7 +3972,7 @@
         <v>34</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>119</v>
@@ -3579,7 +3987,7 @@
         <v>41</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>62</v>
@@ -3605,8 +4013,17 @@
       <c r="BD5" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP5" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ5" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT5" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3623,19 +4040,19 @@
         <v>84</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q6" s="34"/>
+        <v>403</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="33"/>
       <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
@@ -3658,13 +4075,13 @@
         <v>33</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ6" s="9" t="s">
         <v>25</v>
@@ -3676,7 +4093,7 @@
         <v>41</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>62</v>
@@ -3696,8 +4113,17 @@
       <c r="BA6" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP6" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ6" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT6" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3714,17 +4140,17 @@
         <v>79</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>11</v>
@@ -3751,13 +4177,13 @@
         <v>33</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ7" s="9" t="s">
         <v>25</v>
@@ -3769,7 +4195,7 @@
         <v>41</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>62</v>
@@ -3789,8 +4215,17 @@
       <c r="BA7" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP7" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT7" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3807,17 +4242,17 @@
         <v>83</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>11</v>
@@ -3841,13 +4276,13 @@
         <v>33</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ8" s="9" t="s">
         <v>25</v>
@@ -3859,7 +4294,7 @@
         <v>41</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>62</v>
@@ -3879,8 +4314,17 @@
       <c r="BA8" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP8" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT8" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3897,17 +4341,17 @@
         <v>89</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>11</v>
@@ -3935,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ9" s="9" t="s">
         <v>25</v>
@@ -3947,7 +4391,7 @@
         <v>41</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN9" s="9" t="s">
         <v>91</v>
@@ -3955,14 +4399,14 @@
       <c r="AO9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AP9" s="9" t="s">
-        <v>77</v>
+      <c r="AP9" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AR9" s="16" t="s">
-        <v>77</v>
+      <c r="AR9" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AS9" s="9" t="s">
         <v>61</v>
@@ -3979,8 +4423,17 @@
       <c r="BB9" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP9" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ9" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT9" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3997,17 +4450,17 @@
         <v>94</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>11</v>
@@ -4035,7 +4488,7 @@
         <v>34</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ10" s="9" t="s">
         <v>25</v>
@@ -4047,7 +4500,7 @@
         <v>41</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN10" s="9" t="s">
         <v>91</v>
@@ -4055,14 +4508,14 @@
       <c r="AO10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AP10" s="9" t="s">
-        <v>77</v>
+      <c r="AP10" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AR10" s="16" t="s">
-        <v>77</v>
+      <c r="AR10" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AS10" s="9" t="s">
         <v>61</v>
@@ -4085,8 +4538,17 @@
       <c r="BB10" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP10" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ10" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT10" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -4103,17 +4565,17 @@
         <v>113</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>37</v>
@@ -4146,13 +4608,13 @@
         <v>33</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH11" s="15">
-        <v>44188</v>
+      <c r="AH11" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AJ11" s="9" t="s">
         <v>25</v>
@@ -4164,7 +4626,7 @@
         <v>41</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AU11" s="10"/>
       <c r="AV11" s="9" t="s">
@@ -4191,8 +4653,17 @@
       <c r="BD11" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP11" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ11" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT11" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4209,17 +4680,17 @@
         <v>116</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>37</v>
@@ -4249,7 +4720,7 @@
         <v>33</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>119</v>
@@ -4258,7 +4729,7 @@
         <v>34</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI12" s="9" t="s">
         <v>119</v>
@@ -4273,7 +4744,7 @@
         <v>41</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV12" s="9" t="s">
         <v>62</v>
@@ -4299,8 +4770,17 @@
       <c r="BD12" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP12" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ12" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT12" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -4317,17 +4797,17 @@
         <v>114</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>37</v>
@@ -4357,13 +4837,13 @@
         <v>33</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>25</v>
@@ -4375,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV13" s="9" t="s">
         <v>62</v>
@@ -4395,8 +4875,17 @@
       <c r="BA13" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP13" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ13" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT13" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4413,17 +4902,17 @@
         <v>135</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>37</v>
@@ -4456,13 +4945,13 @@
         <v>33</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ14" s="9" t="s">
         <v>25</v>
@@ -4474,7 +4963,7 @@
         <v>41</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV14" s="9" t="s">
         <v>62</v>
@@ -4494,8 +4983,17 @@
       <c r="BA14" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP14" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ14" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT14" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4512,17 +5010,17 @@
         <v>136</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>37</v>
@@ -4555,13 +5053,13 @@
         <v>33</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AJ15" s="9" t="s">
         <v>25</v>
@@ -4573,7 +5071,7 @@
         <v>41</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AV15" s="9" t="s">
         <v>62</v>
@@ -4593,8 +5091,17 @@
       <c r="BA15" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP15" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ15" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT15" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4611,17 +5118,17 @@
         <v>108</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>111</v>
@@ -4654,13 +5161,13 @@
         <v>33</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH16" s="15">
-        <v>44188</v>
+      <c r="AH16" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AJ16" s="9" t="s">
         <v>25</v>
@@ -4672,13 +5179,13 @@
         <v>41</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
-      <c r="AP16" s="16"/>
+      <c r="AP16" s="15"/>
       <c r="AQ16" s="11"/>
-      <c r="AR16" s="16"/>
+      <c r="AR16" s="15"/>
       <c r="AS16" s="11"/>
       <c r="AV16" s="9" t="s">
         <v>62</v>
@@ -4704,8 +5211,17 @@
       <c r="BD16" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="CP16" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ16" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT16" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -4722,17 +5238,17 @@
         <v>107</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>109</v>
@@ -4765,13 +5281,13 @@
         <v>33</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AG17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH17" s="15">
-        <v>44188</v>
+      <c r="AH17" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AJ17" s="9" t="s">
         <v>25</v>
@@ -4783,13 +5299,13 @@
         <v>41</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
-      <c r="AP17" s="16"/>
+      <c r="AP17" s="15"/>
       <c r="AQ17" s="11"/>
-      <c r="AR17" s="16"/>
+      <c r="AR17" s="15"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
       <c r="AU17" s="10"/>
@@ -4817,8 +5333,17 @@
       <c r="BD17" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP17" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ17" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT17" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -4841,32 +5366,32 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>349</v>
+        <v>403</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="U18" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="19" t="s">
         <v>130</v>
       </c>
       <c r="W18" s="9" t="s">
@@ -4894,14 +5419,14 @@
         <v>33</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AF18" s="9"/>
       <c r="AG18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH18" s="15">
-        <v>44188</v>
+      <c r="AH18" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9" t="s">
@@ -4914,17 +5439,26 @@
         <v>41</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
-      <c r="AP18" s="16"/>
+      <c r="AP18" s="15"/>
       <c r="AQ18" s="11"/>
-      <c r="AR18" s="16"/>
+      <c r="AR18" s="15"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-    </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP18" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ18" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT18" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -4951,8 +5485,17 @@
       <c r="P19" s="9"/>
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
-    </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP19" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ19" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT19" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -4965,39 +5508,48 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>365</v>
+      <c r="E20" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>353</v>
       </c>
       <c r="I20" t="s">
         <v>219</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="P20" s="33"/>
+      <c r="CP20" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ20" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT20" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
@@ -5006,24 +5558,24 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="M21" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="N21" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>349</v>
+      <c r="O21" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>37</v>
@@ -5031,7 +5583,7 @@
       <c r="R21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="19" t="s">
         <v>133</v>
       </c>
       <c r="W21" s="9" t="s">
@@ -5058,8 +5610,8 @@
       <c r="AD21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AE21" s="31" t="s">
-        <v>289</v>
+      <c r="AE21" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AF21" s="6" t="s">
         <v>119</v>
@@ -5067,8 +5619,8 @@
       <c r="AG21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH21" s="31" t="s">
-        <v>289</v>
+      <c r="AH21" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AI21" s="9" t="s">
         <v>119</v>
@@ -5079,14 +5631,14 @@
       <c r="AO21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AP21" s="31" t="s">
-        <v>289</v>
+      <c r="AP21" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AR21" s="31" t="s">
-        <v>289</v>
+      <c r="AR21" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AS21" s="9" t="s">
         <v>62</v>
@@ -5094,8 +5646,8 @@
       <c r="AT21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AU21" s="31" t="s">
-        <v>289</v>
+      <c r="AU21" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="AV21" s="9" t="s">
         <v>62</v>
@@ -5125,10 +5677,10 @@
         <v>72</v>
       </c>
       <c r="BE21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BF21" s="20" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="BF21" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="BG21" t="s">
         <v>6</v>
@@ -5149,56 +5701,56 @@
         <v>62</v>
       </c>
       <c r="BM21" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN21" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="BN21" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="BO21" s="20" t="s">
-        <v>264</v>
+      <c r="BO21" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="BP21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BQ21" t="s">
         <v>119</v>
       </c>
-      <c r="BR21" s="20" t="s">
-        <v>274</v>
+      <c r="BR21" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="BS21" t="s">
         <v>61</v>
       </c>
       <c r="BT21" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU21" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV21" t="s">
         <v>277</v>
       </c>
-      <c r="BU21" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="BV21" t="s">
+      <c r="BW21" t="s">
         <v>279</v>
       </c>
-      <c r="BW21" t="s">
+      <c r="BX21" t="s">
+        <v>348</v>
+      </c>
+      <c r="BY21" t="s">
         <v>281</v>
       </c>
-      <c r="BX21" t="s">
-        <v>359</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>283</v>
-      </c>
-      <c r="BZ21" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="CA21" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="CB21" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="CC21" s="30" t="s">
+      <c r="BZ21" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="CA21" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="CB21" s="22" t="s">
         <v>284</v>
       </c>
+      <c r="CC21" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="CD21" s="6" t="s">
         <v>62</v>
       </c>
@@ -5221,10 +5773,10 @@
         <v>62</v>
       </c>
       <c r="CK21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="CL21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="CM21" s="6" t="s">
         <v>62</v>
@@ -5232,13 +5784,22 @@
       <c r="CN21" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP21" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ21" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT21" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
@@ -5246,31 +5807,31 @@
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO22" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO22" s="32" t="s">
+      <c r="CP22" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="CP22" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="CQ22" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CQ22" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -5278,31 +5839,31 @@
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO23" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO23" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="CP23" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="CQ23" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="CQ23" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -5310,31 +5871,31 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO24" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="W24" s="6" t="s">
+      <c r="CP24" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="CO24" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="CP24" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ24" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CQ24" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
         <v>99</v>
@@ -5342,31 +5903,31 @@
       <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO25" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO25" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="CP25" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="CQ25" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="CQ25" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
         <v>99</v>
@@ -5374,34 +5935,34 @@
       <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO26" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO26" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="CP26" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="CQ26" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="CR26" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="CQ26" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR26" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -5409,34 +5970,34 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CO27" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="W27" s="6" t="s">
+      <c r="CP27" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="CO27" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="CP27" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ27" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="CR27" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CQ27" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR27" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
@@ -5445,10 +6006,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="X28" s="9" t="s">
         <v>26</v>
@@ -5465,22 +6026,22 @@
       <c r="AB28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC28" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE28" s="31" t="s">
-        <v>289</v>
+      <c r="AC28" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE28" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AG28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AH28" s="31" t="s">
-        <v>289</v>
+      <c r="AH28" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="AJ28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="CS28" s="23" t="s">
+      <c r="CS28" s="22" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5499,7 +6060,7 @@
   <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5609,89 +6170,89 @@
       <c r="S1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>340</v>
+      <c r="AA1" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="AB1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AC1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AD1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF1" t="s">
         <v>237</v>
       </c>
-      <c r="AE1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>238</v>
-      </c>
       <c r="AG1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
       </c>
       <c r="AI1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AJ1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK1" t="s">
         <v>30</v>
       </c>
       <c r="AL1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>328</v>
       </c>
-      <c r="AM1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>329</v>
       </c>
-      <c r="AP1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>332</v>
-      </c>
       <c r="AS1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AT1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AU1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
@@ -6055,12 +6616,12 @@
       </c>
       <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -6090,7 +6651,7 @@
       <c r="I9" t="s">
         <v>185</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>44201</v>
       </c>
       <c r="K9" t="s">
@@ -6114,7 +6675,7 @@
       <c r="Q9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="23"/>
+      <c r="S9" s="22"/>
       <c r="T9" s="1" t="s">
         <v>172</v>
       </c>
@@ -6155,17 +6716,17 @@
       <c r="L10" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="1"/>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" t="s">
         <v>192</v>
       </c>
@@ -6195,15 +6756,15 @@
       <c r="I11" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="21"/>
       <c r="O11" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="22" t="s">
         <v>195</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -6249,14 +6810,14 @@
       <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23" t="s">
+      <c r="U12" s="22"/>
+      <c r="V12" s="22" t="s">
         <v>199</v>
       </c>
       <c r="W12" t="s">
@@ -6297,16 +6858,16 @@
       <c r="Q13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="U13" s="23" t="s">
+      <c r="U13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="22" t="s">
         <v>210</v>
       </c>
       <c r="W13" t="s">
@@ -6347,52 +6908,52 @@
       <c r="Q14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23" t="s">
+      <c r="U14" s="22"/>
+      <c r="V14" s="22" t="s">
         <v>199</v>
       </c>
       <c r="W14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:47" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+    <row r="15" spans="1:47" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="J15" s="36" t="s">
+      <c r="I15" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="34" t="s">
         <v>161</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -6416,10 +6977,10 @@
       <c r="R15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="U15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="22" t="s">
         <v>199</v>
       </c>
       <c r="Z15" t="s">
@@ -6428,64 +6989,64 @@
       <c r="AA15" t="s">
         <v>174</v>
       </c>
-      <c r="AB15" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>262</v>
+      <c r="AB15" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="AE15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF15" s="35" t="s">
-        <v>334</v>
+        <v>268</v>
+      </c>
+      <c r="AF15" s="34" t="s">
+        <v>331</v>
       </c>
       <c r="AG15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
         <v>279</v>
       </c>
-      <c r="AH15" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>281</v>
-      </c>
       <c r="AJ15" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM15" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN15" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="AK15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL15" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM15" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="AN15" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="AS15" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="AT15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" s="35" t="s">
+      <c r="AO15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="AS15" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6500,22 +7061,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="65.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -6528,22 +7102,360 @@
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>380</v>
+      </c>
+      <c r="R1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="M3" s="21">
+        <v>44562</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>313</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="U3" s="33"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="21">
+        <v>44562</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="P5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG/data/MasterData.xlsx
+++ b/TestNG/data/MasterData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A73B7-EE2D-4856-BDD2-3FF7A4090013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513B5A7-5A98-4E16-80C8-76D5BEC31FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="537">
   <si>
     <t>UserName</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Managed</t>
   </si>
   <si>
-    <t>OLM</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -164,1144 +161,1492 @@
     <t>General GPO</t>
   </si>
   <si>
+    <t>defaultAccountStatus</t>
+  </si>
+  <si>
+    <t>defaultAccountType</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>premierStartDate</t>
+  </si>
+  <si>
+    <t>businessClassification</t>
+  </si>
+  <si>
+    <t>selectTPRelationDate</t>
+  </si>
+  <si>
+    <t>street1</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>recordStatusPublished</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>Service Agreement</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5921 : Create a supplier top parent</t>
+  </si>
+  <si>
+    <t>CRMNumber</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>ReleaseCategory</t>
+  </si>
+  <si>
+    <t>VerifyIsCorporateAccount</t>
+  </si>
+  <si>
+    <t>VerifyCorporateParentName</t>
+  </si>
+  <si>
+    <t>VerifyIsFoodServiceParent</t>
+  </si>
+  <si>
+    <t>VerifyFoodServiceParentName</t>
+  </si>
+  <si>
+    <t>VerifySponsor</t>
+  </si>
+  <si>
+    <t>VerifyIsSponsor</t>
+  </si>
+  <si>
+    <t>12/23/2020</t>
+  </si>
+  <si>
+    <t>TFS ID_7141:Create new member - New Member form and Save it as member first</t>
+  </si>
+  <si>
+    <t>Member_7141_12212020</t>
+  </si>
+  <si>
+    <t>Member_7137_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7142: Create new member - New Member entry form and Save it as member first</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Member_7142_12212020</t>
+  </si>
+  <si>
+    <t>Member_7140_12212020</t>
+  </si>
+  <si>
+    <t>Member_7138_12212020</t>
+  </si>
+  <si>
+    <t>Member_7139_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7143:Create new Top Parent member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7144:Create new Top Parent member - New Member form and Save it as Member first</t>
+  </si>
+  <si>
+    <t>TP_7143_12302020</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Acurity</t>
+  </si>
+  <si>
+    <t>TopParentClassification</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>TP_7144_12302020</t>
+  </si>
+  <si>
+    <t>FeeShareEligibleStartDate</t>
+  </si>
+  <si>
+    <t>FBOType</t>
+  </si>
+  <si>
+    <t>FBOEffectiveDate</t>
+  </si>
+  <si>
+    <t>isFBO</t>
+  </si>
+  <si>
+    <t>corp\crmtest01</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>Affiliate NonAcute</t>
+  </si>
+  <si>
+    <t>AffiliateGroup</t>
+  </si>
+  <si>
+    <t>AffiliateGroupEffectiveDate</t>
+  </si>
+  <si>
+    <t>VerifyDirectParentRelation</t>
+  </si>
+  <si>
+    <t>TFS ID_7152: Create new Mail to account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7151:Create new Bill to account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7152_12212020</t>
+  </si>
+  <si>
+    <t>Member_7151_12212020</t>
+  </si>
+  <si>
+    <t>Mail To</t>
+  </si>
+  <si>
+    <t>TFS ID_7146:Create new Shipto account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Bill To</t>
+  </si>
+  <si>
+    <t>TFS ID_7148:Create new Shipto account - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7146_12212020</t>
+  </si>
+  <si>
+    <t>Member_7148_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7147:Create new Shipto account - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7147_12212020</t>
+  </si>
+  <si>
+    <t>VerifyTopParent</t>
+  </si>
+  <si>
+    <t>VerifyDirectParent</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TFS ID_7149:Create new Shipto account for conversion scenario - New Member form and Save it as member first</t>
+  </si>
+  <si>
+    <t>TFS ID_7312: Add and update Primary contact to a Member account</t>
+  </si>
+  <si>
+    <t>PrimaryContact</t>
+  </si>
+  <si>
+    <t>PrimaryContactName</t>
+  </si>
+  <si>
+    <t>PrimaryContactLookUp</t>
+  </si>
+  <si>
+    <t>PrimaryContactNameLookUp</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>7000331193</t>
+  </si>
+  <si>
+    <t>7000133221</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>TFS ID_7313:Verify Account status is defaulted to Active on a member &amp; member entry form</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Behnke, Jennie</t>
+  </si>
+  <si>
+    <t>TFS ID_7150: Create new Shipto to main account conversionClose</t>
+  </si>
+  <si>
+    <t>Member_7149_12212020</t>
+  </si>
+  <si>
+    <t>Member_7150_12212020</t>
+  </si>
+  <si>
+    <t>Member_7312_12212020</t>
+  </si>
+  <si>
+    <t>recordChangeStatus</t>
+  </si>
+  <si>
+    <t>directParent</t>
+  </si>
+  <si>
+    <t>selectDPRelationDate</t>
+  </si>
+  <si>
+    <t>storeLocationType</t>
+  </si>
+  <si>
+    <t>addSupplierPrimaryContact</t>
+  </si>
+  <si>
+    <t>crmNumberInput</t>
+  </si>
+  <si>
+    <t>verifyEntityCode</t>
+  </si>
+  <si>
+    <t>verifyRecordStatus</t>
+  </si>
+  <si>
+    <t>verifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>verifyAccountName</t>
+  </si>
+  <si>
+    <t>verifyPrimaryContactValue</t>
+  </si>
+  <si>
+    <t>expectedAccountStatusErrorText</t>
+  </si>
+  <si>
+    <t>verifyDPValue</t>
+  </si>
+  <si>
+    <t>corp\crmtest04</t>
+  </si>
+  <si>
+    <t>Create Supplier TP</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5757: Supplier account can not be inactive</t>
+  </si>
+  <si>
+    <t>Check Supplier Account Status</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>254 33rd St</t>
+  </si>
+  <si>
+    <t>Supplier cannot be made Inactive</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5911: Add a primary contact to a supplier</t>
+  </si>
+  <si>
+    <t>Add Primary Contact to Supplier</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>Wholesaler</t>
+  </si>
+  <si>
+    <t>255 33rd St</t>
+  </si>
+  <si>
+    <t>7000309682</t>
+  </si>
+  <si>
+    <t>Almon, Helen</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7153: Create a supplier Top Parent- Save using Supplier Login and but not able to Publish</t>
+  </si>
+  <si>
+    <t>corp\crmtest03</t>
+  </si>
+  <si>
+    <t>Create TP with Supplier Login</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>256 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7154 :Create a supplier under a DP and save using Supplier Login</t>
+  </si>
+  <si>
+    <t>Create a Supplier under DP with Supplier Login</t>
+  </si>
+  <si>
+    <t>823260</t>
+  </si>
+  <si>
+    <t>257 33rd St</t>
+  </si>
+  <si>
+    <t>1000Bulbs.com</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7159 :Create a supplier under DP -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>Publish Supplier under DP with Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>258 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7155 :Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>1000162819</t>
+  </si>
+  <si>
+    <t>7 Oaks Pharmaceutical</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7160 :Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>260 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7161 :Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>1/5/2021</t>
+  </si>
+  <si>
+    <t>2000336450</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7162 :Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>2000451047</t>
+  </si>
+  <si>
+    <t>AD7516</t>
+  </si>
+  <si>
+    <t>613med Solutions</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7157:Modify Address in an existing Supplier Account as a Supplier Supervisor and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Modify Address as a Supplier Supervisor</t>
+  </si>
+  <si>
+    <t>265 33rd St</t>
+  </si>
+  <si>
+    <t>2000141830</t>
+  </si>
+  <si>
+    <t>804679</t>
+  </si>
+  <si>
+    <t>180 Innovations LLC</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7158:Modify Address in an existing Supplier Account as a Supplier and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Address as a Supplier </t>
+  </si>
+  <si>
+    <t>266 33rd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000141844 </t>
+  </si>
+  <si>
+    <t>826992</t>
+  </si>
+  <si>
+    <t>Needs Approval</t>
+  </si>
+  <si>
+    <t>2 Unique Caterers and Event Planners Inc</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7156:Modify Address in an existing Supplier Account and re-publish as a Supplier Supervisor. Same Entity code should be retained</t>
+  </si>
+  <si>
+    <t>267 33rd St</t>
+  </si>
+  <si>
+    <t>2000141843</t>
+  </si>
+  <si>
+    <t>739125</t>
+  </si>
+  <si>
+    <t>2 Degrees, Inc</t>
+  </si>
+  <si>
+    <t>1/4/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1141 : Validate Business Key</t>
+  </si>
+  <si>
+    <t>Member_1141_11302020</t>
+  </si>
+  <si>
+    <t>CrmNumber</t>
+  </si>
+  <si>
+    <t>CrmNumber1</t>
+  </si>
+  <si>
+    <t>BusinessClassification</t>
+  </si>
+  <si>
+    <t>2000141844</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2000456755</t>
+  </si>
+  <si>
+    <t>2000456756</t>
+  </si>
+  <si>
+    <t>2000456757</t>
+  </si>
+  <si>
+    <t>2000456759</t>
+  </si>
+  <si>
+    <t>2000456760</t>
+  </si>
+  <si>
+    <t>2000456761</t>
+  </si>
+  <si>
+    <t>AccountName2</t>
+  </si>
+  <si>
+    <t>AcountStatus</t>
+  </si>
+  <si>
+    <t>ExcludeFromRoaster</t>
+  </si>
+  <si>
+    <t>SupplierRecord</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CorporateRebate</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>OverrideName</t>
+  </si>
+  <si>
+    <t>MainPhone</t>
+  </si>
+  <si>
+    <t>OtherPhone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>FSRPTFlag</t>
+  </si>
+  <si>
+    <t>DoNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>ExternalAddessID</t>
+  </si>
+  <si>
+    <t>MembershipProviderType</t>
+  </si>
+  <si>
+    <t>IsTopParent</t>
+  </si>
+  <si>
+    <t>CorpParentOverride</t>
+  </si>
+  <si>
+    <t>FBOManualOverride</t>
+  </si>
+  <si>
+    <t>FBOGPO</t>
+  </si>
+  <si>
+    <t>ReceiveDirectMail</t>
+  </si>
+  <si>
+    <t>Create member with all available fields2</t>
+  </si>
+  <si>
+    <t>VerifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>VerifyPremierOwner</t>
+  </si>
+  <si>
+    <t>VerifyBKActive</t>
+  </si>
+  <si>
+    <t>Apara Care</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>ChangeRecordStatus</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Create member with all available fields</t>
+  </si>
+  <si>
+    <t>Alternate Markets</t>
+  </si>
+  <si>
+    <t>Non-Healthcare</t>
+  </si>
+  <si>
+    <t>StockSymbol</t>
+  </si>
+  <si>
+    <t>Stock Symbol test</t>
+  </si>
+  <si>
+    <t>PaymentEntity</t>
+  </si>
+  <si>
+    <t>VerifyGroup</t>
+  </si>
+  <si>
+    <t>VerifyFacilityType</t>
+  </si>
+  <si>
+    <t>1 Senior Care</t>
+  </si>
+  <si>
+    <t>VerifyIsPaymentEntity</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>CorporateRebateFeeDate</t>
+  </si>
+  <si>
+    <t>Street2 test</t>
+  </si>
+  <si>
+    <t>DeliveryInfo</t>
+  </si>
+  <si>
+    <t>Delivery info test</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>OverrideName Test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>FSPOverride</t>
+  </si>
+  <si>
+    <t>456987123</t>
+  </si>
+  <si>
+    <t>5987642158</t>
+  </si>
+  <si>
+    <t>DEANumber</t>
+  </si>
+  <si>
+    <t>2/2/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7422:Create New Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>Membership Provider</t>
+  </si>
+  <si>
+    <t>MembershipProviderTypeOptions</t>
+  </si>
+  <si>
+    <t>Aggregation Affiliation</t>
+  </si>
+  <si>
+    <t>ak4789509</t>
+  </si>
+  <si>
+    <t>1000155584</t>
+  </si>
+  <si>
+    <t>MembershipProviderStartDate</t>
+  </si>
+  <si>
+    <t>Program,DSH,Aggregation Affiliation,Affiliate Group,SOAR,N/A</t>
+  </si>
+  <si>
+    <t>DSH</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>SOAR</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7421:Create New Membership Provider with type "DSH"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7420:Create New Membership Provider with type "Program"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7423:Create New Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7474:Change Account status to Terminated for a Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>AccountStatus</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
+  </si>
+  <si>
+    <t>New Business Partner</t>
+  </si>
+  <si>
+    <t>Business Partner</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>accountName2</t>
+  </si>
+  <si>
+    <t>verifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>stockSymbol</t>
+  </si>
+  <si>
+    <t>deliveryInfo</t>
+  </si>
+  <si>
+    <t>mainPhone</t>
+  </si>
+  <si>
+    <t>receiveDirectMail</t>
+  </si>
+  <si>
+    <t>doNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>verifyIsTopParent</t>
+  </si>
+  <si>
+    <t>overrideName</t>
+  </si>
+  <si>
+    <t>Account name2</t>
+  </si>
+  <si>
+    <t>Test exchange</t>
+  </si>
+  <si>
+    <t>Override name</t>
+  </si>
+  <si>
+    <t>memberRecord</t>
+  </si>
+  <si>
+    <t>verifyHIBCC</t>
+  </si>
+  <si>
+    <t>verifyNoNewProducts</t>
+  </si>
+  <si>
+    <t>Amalgamated Transit Union</t>
+  </si>
+  <si>
+    <t>verifyTopParent</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Account name changed with LM</t>
+  </si>
+  <si>
+    <t>Update account name2 with LM</t>
+  </si>
+  <si>
+    <t>5987642159</t>
+  </si>
+  <si>
+    <t>198 33rd St</t>
+  </si>
+  <si>
+    <t>VerifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>1000194141</t>
+  </si>
+  <si>
+    <t>2000424828</t>
+  </si>
+  <si>
+    <t>corp\crmtest10</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>CrmNumber2</t>
+  </si>
+  <si>
+    <t>CrmNumber3</t>
+  </si>
+  <si>
+    <t>2000444770</t>
+  </si>
+  <si>
+    <t>2000103171</t>
+  </si>
+  <si>
+    <t>Child Account Business Key cannot be activated when key is not active in Parent Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Parent Account Business Key cannot be deactivated when key is active in Child Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage1</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7608:Create a new contact and add job function and communication/publication</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4549:Verify once the Contact's relationship end date is updated then its job function and communications should get terminated</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4550:Verify once the contact is end dated then the related Contact Account Association should get terminated</t>
+  </si>
+  <si>
+    <t>TC7608</t>
+  </si>
+  <si>
+    <t>primaryAccount</t>
+  </si>
+  <si>
+    <t>1000155094</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>contactRelationshipEndDate</t>
+  </si>
+  <si>
+    <t>jobFunction</t>
+  </si>
+  <si>
+    <t>Bid Proposal Team</t>
+  </si>
+  <si>
+    <t>communicationPublication</t>
+  </si>
+  <si>
+    <t>Roster - Hierarchy Roster</t>
+  </si>
+  <si>
+    <t>contactRecordStatus</t>
+  </si>
+  <si>
+    <t>terminationStatus</t>
+  </si>
+  <si>
+    <t>TC4550</t>
+  </si>
+  <si>
+    <t>TC4549</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4548: Verify if duplicate contact account association cannot be created for any contact</t>
+  </si>
+  <si>
+    <t>A Contact Account Association record already exists for the current relationsh</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Billstra Pharmacy</t>
+  </si>
+  <si>
+    <t>TC4548</t>
+  </si>
+  <si>
+    <t>TC6576</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5137:Restrict when user enters blank communication record in Contact account associations</t>
+  </si>
+  <si>
+    <t>7000552343</t>
+  </si>
+  <si>
+    <t>activeContact</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5136:Restrict when user enters blank job function in Contact account associations</t>
+  </si>
+  <si>
+    <t>TFS ID_ 6576:Verify Duplicate detection rule applies when Communication or Publication entered twice by the user</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>MembershipProvider</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>contactEndDate</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1136: Validate deactivating a contact result in updating the contact end date and inactivating the contact account association records</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4547:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
+    <t>primaryAccount1</t>
+  </si>
+  <si>
+    <t>Billsby</t>
+  </si>
+  <si>
+    <t>No Contact Job Functions found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>errorMessage1</t>
+  </si>
+  <si>
+    <t>No Contact Communications found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>3/4/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Member with all available fields</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>2000462918</t>
+  </si>
+  <si>
+    <t>693630157</t>
+  </si>
+  <si>
+    <t>corp\crmtest06</t>
+  </si>
+  <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>defaultAccountStatus</t>
-  </si>
-  <si>
-    <t>defaultAccountType</t>
-  </si>
-  <si>
-    <t>accountName</t>
-  </si>
-  <si>
-    <t>premierStartDate</t>
-  </si>
-  <si>
-    <t>businessClassification</t>
-  </si>
-  <si>
-    <t>selectTPRelationDate</t>
-  </si>
-  <si>
-    <t>street1</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>recordStatusPublished</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>11/23/2020</t>
-  </si>
-  <si>
-    <t>Service Agreement</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5921 : Create a supplier top parent</t>
-  </si>
-  <si>
-    <t>CRMNumber</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>ReleaseCategory</t>
-  </si>
-  <si>
-    <t>673415</t>
-  </si>
-  <si>
-    <t>VerifyIsCorporateAccount</t>
-  </si>
-  <si>
-    <t>VerifyCorporateParentName</t>
-  </si>
-  <si>
-    <t>Yankee Alliance</t>
-  </si>
-  <si>
-    <t>VerifyIsFoodServiceParent</t>
-  </si>
-  <si>
-    <t>VerifyFoodServiceParentName</t>
-  </si>
-  <si>
-    <t>VerifySponsor</t>
-  </si>
-  <si>
-    <t>VerifyIsSponsor</t>
-  </si>
-  <si>
-    <t>12/23/2020</t>
-  </si>
-  <si>
-    <t>TFS ID_7141:Create new member - New Member form and Save it as member first</t>
-  </si>
-  <si>
-    <t>Member_7141_12212020</t>
-  </si>
-  <si>
-    <t>Member_7137_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7142: Create new member - New Member entry form and Save it as member first</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Member_7142_12212020</t>
-  </si>
-  <si>
-    <t>Member_7140_12212020</t>
-  </si>
-  <si>
-    <t>Member_7138_12212020</t>
-  </si>
-  <si>
-    <t>Member_7139_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7143:Create new Top Parent member - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7144:Create new Top Parent member - New Member form and Save it as Member first</t>
-  </si>
-  <si>
-    <t>TP_7143_12302020</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Acurity</t>
-  </si>
-  <si>
-    <t>TopParentClassification</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>TP_7144_12302020</t>
-  </si>
-  <si>
-    <t>FeeShareEligibleStartDate</t>
-  </si>
-  <si>
-    <t>FBOType</t>
-  </si>
-  <si>
-    <t>FBOEffectiveDate</t>
-  </si>
-  <si>
-    <t>isFBO</t>
-  </si>
-  <si>
-    <t>corp\crmtest01</t>
-  </si>
-  <si>
-    <t>Owned</t>
-  </si>
-  <si>
-    <t>Affiliate NonAcute</t>
-  </si>
-  <si>
-    <t>AffiliateGroup</t>
-  </si>
-  <si>
-    <t>AffiliateGroupEffectiveDate</t>
-  </si>
-  <si>
-    <t>VerifyDirectParentRelation</t>
-  </si>
-  <si>
-    <t>TFS ID_7152: Create new Mail to account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7151:Create new Bill to account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7152_12212020</t>
-  </si>
-  <si>
-    <t>Member_7151_12212020</t>
-  </si>
-  <si>
-    <t>Mail To</t>
-  </si>
-  <si>
-    <t>TFS ID_7146:Create new Shipto account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Bill To</t>
-  </si>
-  <si>
-    <t>TFS ID_7148:Create new Shipto account - New Member entry form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7146_12212020</t>
-  </si>
-  <si>
-    <t>Member_7148_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7147:Create new Shipto account - New Member form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7147_12212020</t>
-  </si>
-  <si>
-    <t>VerifyTopParent</t>
-  </si>
-  <si>
-    <t>VerifyDirectParent</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TFS ID_7149:Create new Shipto account for conversion scenario - New Member form and Save it as member first</t>
-  </si>
-  <si>
-    <t>TFS ID_7312: Add and update Primary contact to a Member account</t>
-  </si>
-  <si>
-    <t>PrimaryContact</t>
-  </si>
-  <si>
-    <t>PrimaryContactName</t>
-  </si>
-  <si>
-    <t>PrimaryContactLookUp</t>
-  </si>
-  <si>
-    <t>PrimaryContactNameLookUp</t>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t>TC1136</t>
+  </si>
+  <si>
+    <t>TC4547</t>
   </si>
   <si>
     <t>https://crmstage.premierinc.com/</t>
   </si>
   <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>7000331193</t>
-  </si>
-  <si>
-    <t>7000133221</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>TFS ID_7313:Verify Account status is defaulted to Active on a member &amp; member entry form</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Behnke, Jennie</t>
-  </si>
-  <si>
-    <t>TFS ID_7150: Create new Shipto to main account conversionClose</t>
-  </si>
-  <si>
-    <t>Member_7149_12212020</t>
-  </si>
-  <si>
-    <t>Member_7150_12212020</t>
-  </si>
-  <si>
-    <t>Member_7312_12212020</t>
-  </si>
-  <si>
-    <t>recordChangeStatus</t>
-  </si>
-  <si>
-    <t>directParent</t>
-  </si>
-  <si>
-    <t>selectDPRelationDate</t>
-  </si>
-  <si>
-    <t>storeLocationType</t>
-  </si>
-  <si>
-    <t>addSupplierPrimaryContact</t>
-  </si>
-  <si>
-    <t>crmNumberInput</t>
-  </si>
-  <si>
-    <t>verifyEntityCode</t>
-  </si>
-  <si>
-    <t>verifyRecordStatus</t>
-  </si>
-  <si>
-    <t>verifyRecordChangeStatus</t>
-  </si>
-  <si>
-    <t>verifyAccountName</t>
-  </si>
-  <si>
-    <t>verifyPrimaryContactValue</t>
-  </si>
-  <si>
-    <t>expectedAccountStatusErrorText</t>
-  </si>
-  <si>
-    <t>verifyDPValue</t>
-  </si>
-  <si>
-    <t>corp\crmtest04</t>
-  </si>
-  <si>
-    <t>Create Supplier TP</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5757: Supplier account can not be inactive</t>
-  </si>
-  <si>
-    <t>Check Supplier Account Status</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>254 33rd St</t>
-  </si>
-  <si>
-    <t>Supplier cannot be made Inactive</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5911: Add a primary contact to a supplier</t>
-  </si>
-  <si>
-    <t>Add Primary Contact to Supplier</t>
-  </si>
-  <si>
-    <t>12/29/2020</t>
-  </si>
-  <si>
-    <t>Wholesaler</t>
-  </si>
-  <si>
-    <t>255 33rd St</t>
-  </si>
-  <si>
-    <t>7000309682</t>
-  </si>
-  <si>
-    <t>Almon, Helen</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7153: Create a supplier Top Parent- Save using Supplier Login and but not able to Publish</t>
-  </si>
-  <si>
-    <t>corp\crmtest03</t>
-  </si>
-  <si>
-    <t>Create TP with Supplier Login</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>256 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7154 :Create a supplier under a DP and save using Supplier Login</t>
-  </si>
-  <si>
-    <t>Create a Supplier under DP with Supplier Login</t>
-  </si>
-  <si>
-    <t>823260</t>
-  </si>
-  <si>
-    <t>257 33rd St</t>
-  </si>
-  <si>
-    <t>1000Bulbs.com</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7159 :Create a supplier under DP -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>Publish Supplier under DP with Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>12/30/2020</t>
-  </si>
-  <si>
-    <t>258 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7155 :Publish an existing supplier using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Publish an existing supplier using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>12/30/2021</t>
-  </si>
-  <si>
-    <t>1000162819</t>
-  </si>
-  <si>
-    <t>7 Oaks Pharmaceutical</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7160 :Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>260 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7161 :Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>1/5/2021</t>
-  </si>
-  <si>
-    <t>2000336450</t>
-  </si>
-  <si>
-    <t>635140</t>
-  </si>
-  <si>
-    <t>3dr Laboratories, LLC</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7162 :Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>2000451047</t>
-  </si>
-  <si>
-    <t>AD7516</t>
-  </si>
-  <si>
-    <t>613med Solutions</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7157:Modify Address in an existing Supplier Account as a Supplier Supervisor and Verify Record Change Status</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Modify Address as a Supplier Supervisor</t>
-  </si>
-  <si>
-    <t>265 33rd St</t>
-  </si>
-  <si>
-    <t>2000141830</t>
-  </si>
-  <si>
-    <t>804679</t>
-  </si>
-  <si>
-    <t>180 Innovations LLC</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7158:Modify Address in an existing Supplier Account as a Supplier and Verify Record Change Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Address as a Supplier </t>
-  </si>
-  <si>
-    <t>266 33rd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000141844 </t>
-  </si>
-  <si>
-    <t>826992</t>
-  </si>
-  <si>
-    <t>Needs Approval</t>
-  </si>
-  <si>
-    <t>2 Unique Caterers and Event Planners Inc</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7156:Modify Address in an existing Supplier Account and re-publish as a Supplier Supervisor. Same Entity code should be retained</t>
-  </si>
-  <si>
-    <t>267 33rd St</t>
-  </si>
-  <si>
-    <t>2000141843</t>
-  </si>
-  <si>
-    <t>739125</t>
-  </si>
-  <si>
-    <t>2 Degrees, Inc</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1141 : Validate Business Key</t>
-  </si>
-  <si>
-    <t>Member_1141_11302020</t>
-  </si>
-  <si>
-    <t>CrmNumber</t>
-  </si>
-  <si>
-    <t>CrmNumber1</t>
-  </si>
-  <si>
-    <t>BusinessClassification</t>
-  </si>
-  <si>
-    <t>2000141844</t>
-  </si>
-  <si>
-    <t>No Run</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2000456755</t>
-  </si>
-  <si>
-    <t>2000456756</t>
-  </si>
-  <si>
-    <t>2000456757</t>
-  </si>
-  <si>
-    <t>2000456759</t>
-  </si>
-  <si>
-    <t>2000456760</t>
-  </si>
-  <si>
-    <t>2000456761</t>
-  </si>
-  <si>
-    <t>AccountName2</t>
-  </si>
-  <si>
-    <t>AcountStatus</t>
-  </si>
-  <si>
-    <t>ExcludeFromRoaster</t>
-  </si>
-  <si>
-    <t>SupplierRecord</t>
-  </si>
-  <si>
-    <t>Ownership</t>
-  </si>
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>CorporateRebate</t>
-  </si>
-  <si>
-    <t>HIN</t>
-  </si>
-  <si>
-    <t>Street2</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>OverrideName</t>
-  </si>
-  <si>
-    <t>MainPhone</t>
-  </si>
-  <si>
-    <t>OtherPhone</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>FSRPTFlag</t>
-  </si>
-  <si>
-    <t>DoNotVerifyAddress</t>
-  </si>
-  <si>
-    <t>ExternalAddessID</t>
-  </si>
-  <si>
-    <t>MembershipProviderType</t>
-  </si>
-  <si>
-    <t>IsTopParent</t>
-  </si>
-  <si>
-    <t>CorpParentOverride</t>
-  </si>
-  <si>
-    <t>FBOManualOverride</t>
-  </si>
-  <si>
-    <t>FBOGPO</t>
-  </si>
-  <si>
-    <t>ReceiveDirectMail</t>
-  </si>
-  <si>
-    <t>Create member with all available fields2</t>
-  </si>
-  <si>
-    <t>VerifyCAMSFlag</t>
-  </si>
-  <si>
-    <t>VerifyPremierOwner</t>
-  </si>
-  <si>
-    <t>VerifyBKActive</t>
-  </si>
-  <si>
-    <t>Apara Care</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>ChangeRecordStatus</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Create member with all available fields</t>
-  </si>
-  <si>
-    <t>Alternate Markets</t>
-  </si>
-  <si>
-    <t>Non-Healthcare</t>
-  </si>
-  <si>
-    <t>StockSymbol</t>
-  </si>
-  <si>
-    <t>Stock Symbol test</t>
-  </si>
-  <si>
-    <t>PaymentEntity</t>
-  </si>
-  <si>
-    <t>VerifyGroup</t>
-  </si>
-  <si>
-    <t>VerifyFacilityType</t>
-  </si>
-  <si>
-    <t>1 Senior Care</t>
-  </si>
-  <si>
-    <t>VerifyIsPaymentEntity</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1111:Create Membe with all available fields</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>CorporateRebateFeeDate</t>
-  </si>
-  <si>
-    <t>Street2 test</t>
-  </si>
-  <si>
-    <t>DeliveryInfo</t>
-  </si>
-  <si>
-    <t>Delivery info test</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>OverrideName Test</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>FSPOverride</t>
-  </si>
-  <si>
-    <t>456987123</t>
-  </si>
-  <si>
-    <t>5987642158</t>
-  </si>
-  <si>
-    <t>DEANumber</t>
-  </si>
-  <si>
-    <t>2/2/2021</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7422:Create New Membership Provider with type "Aggregation Affiliation"</t>
-  </si>
-  <si>
-    <t>Membership Provider</t>
-  </si>
-  <si>
-    <t>MembershipProviderTypeOptions</t>
-  </si>
-  <si>
-    <t>Aggregation Affiliation</t>
-  </si>
-  <si>
-    <t>2000456969</t>
-  </si>
-  <si>
-    <t>868494489</t>
-  </si>
-  <si>
-    <t>ak4789509</t>
-  </si>
-  <si>
-    <t>1000155584</t>
-  </si>
-  <si>
-    <t>MembershipProviderStartDate</t>
-  </si>
-  <si>
-    <t>Program,DSH,Aggregation Affiliation,Affiliate Group,SOAR,N/A</t>
-  </si>
-  <si>
-    <t>DSH</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>SOAR</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7421:Create New Membership Provider with type "DSH"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7420:Create New Membership Provider with type "Program"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7423:Create New Membership Provider with type "SOAR"</t>
-  </si>
-  <si>
-    <t>Membership Provider With Program</t>
-  </si>
-  <si>
-    <t>Membership Provider With DSH</t>
-  </si>
-  <si>
-    <t>Membership Provider With AggregationAffiliation</t>
-  </si>
-  <si>
-    <t>Membership Provider With SOAR</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7474:Change Account status to Terminated for a Membership Provider with type "Aggregation Affiliation"</t>
-  </si>
-  <si>
-    <t>Change Status to Inactive for membership Provider With SOAR</t>
-  </si>
-  <si>
-    <t>Change Status to Terminated foMembership Provider With AggregationAffiliation</t>
-  </si>
-  <si>
-    <t>AccountStatus</t>
-  </si>
-  <si>
-    <t>Terminated</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
-  </si>
-  <si>
-    <t>New Business Partner</t>
+    <t>https://crminternalstage.premierinc.com/PRESIT/main.aspx#884115409</t>
+  </si>
+  <si>
+    <t>7000552692</t>
+  </si>
+  <si>
+    <t>GroupSource</t>
+  </si>
+  <si>
+    <t>832157</t>
   </si>
   <si>
     <t>1000039759</t>
   </si>
   <si>
-    <t>Business Partner</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
-  </si>
-  <si>
-    <t>Supplier with all available fields</t>
-  </si>
-  <si>
-    <t>accountName2</t>
-  </si>
-  <si>
-    <t>verifyCAMSFlag</t>
-  </si>
-  <si>
-    <t>stockSymbol</t>
-  </si>
-  <si>
-    <t>deliveryInfo</t>
-  </si>
-  <si>
-    <t>mainPhone</t>
-  </si>
-  <si>
-    <t>receiveDirectMail</t>
-  </si>
-  <si>
-    <t>doNotVerifyAddress</t>
-  </si>
-  <si>
-    <t>verifyIsTopParent</t>
-  </si>
-  <si>
-    <t>overrideName</t>
-  </si>
-  <si>
-    <t>Account name2</t>
-  </si>
-  <si>
-    <t>Test exchange</t>
-  </si>
-  <si>
-    <t>Override name</t>
-  </si>
-  <si>
-    <t>memberRecord</t>
-  </si>
-  <si>
-    <t>verifyHIBCC</t>
-  </si>
-  <si>
-    <t>verifyNoNewProducts</t>
-  </si>
-  <si>
-    <t>Amalgamated Transit Union</t>
-  </si>
-  <si>
-    <t>verifyTopParent</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>Account name changed with LM</t>
-  </si>
-  <si>
-    <t>Update account name2 with LM</t>
-  </si>
-  <si>
-    <t>5987642159</t>
-  </si>
-  <si>
-    <t>198 33rd St</t>
-  </si>
-  <si>
-    <t>VerifyRecordChangeStatus</t>
-  </si>
-  <si>
-    <t>1000194141</t>
-  </si>
-  <si>
-    <t>2000424828</t>
-  </si>
-  <si>
-    <t>corp\crmtest10</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>https://crminternalstage.premierinc.com/PRESIT/main.aspx#884115409</t>
-  </si>
-  <si>
-    <t>CrmNumber2</t>
-  </si>
-  <si>
-    <t>CrmNumber3</t>
-  </si>
-  <si>
-    <t>2000444770</t>
-  </si>
-  <si>
-    <t>2000103171</t>
-  </si>
-  <si>
-    <t>Child Account Business Key cannot be activated when key is not active in Parent Account!</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Parent Account Business Key cannot be deactivated when key is active in Child Account!</t>
-  </si>
-  <si>
-    <t>ErrorMessage1</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7608:Create a new contact and add job function and communication/publication</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4549:Verify once the Contact's relationship end date is updated then its job function and communications should get terminated</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4550:Verify once the contact is end dated then the related Contact Account Association should get terminated</t>
-  </si>
-  <si>
-    <t>TC7608</t>
-  </si>
-  <si>
-    <t>primaryAccount</t>
-  </si>
-  <si>
-    <t>1000155094</t>
-  </si>
-  <si>
-    <t>recordStatus</t>
-  </si>
-  <si>
-    <t>contactRelationshipEndDate</t>
-  </si>
-  <si>
-    <t>jobFunction</t>
-  </si>
-  <si>
-    <t>Bid Proposal Team</t>
-  </si>
-  <si>
-    <t>communicationPublication</t>
-  </si>
-  <si>
-    <t>Roster - Hierarchy Roster</t>
-  </si>
-  <si>
-    <t>contactRecordStatus</t>
-  </si>
-  <si>
-    <t>terminationStatus</t>
-  </si>
-  <si>
-    <t>TC4550</t>
-  </si>
-  <si>
-    <t>TC4549</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4548: Verify if duplicate contact account association cannot be created for any contact</t>
-  </si>
-  <si>
-    <t>A Contact Account Association record already exists for the current relationsh</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>Billstra Pharmacy</t>
-  </si>
-  <si>
-    <t>7000552336</t>
-  </si>
-  <si>
-    <t>TC4548</t>
-  </si>
-  <si>
-    <t>TC6576</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5137:Restrict when user enters blank communication record in Contact account associations</t>
-  </si>
-  <si>
-    <t>7000552343</t>
-  </si>
-  <si>
-    <t>activeContact</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5136:Restrict when user enters blank job function in Contact account associations</t>
-  </si>
-  <si>
-    <t>TFS ID_ 6576:Verify Duplicate detection rule applies when Communication or Publication entered twice by the user</t>
-  </si>
-  <si>
-    <t>Premier</t>
-  </si>
-  <si>
-    <t>MembershipProvider</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>2000462464</t>
-  </si>
-  <si>
-    <t>contactEndDate</t>
-  </si>
-  <si>
-    <t>1/1/2024</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1136: Validate deactivating a contact result in updating the contact end date and inactivating the contact account association records</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4547:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
-  </si>
-  <si>
-    <t>primaryAccount1</t>
-  </si>
-  <si>
-    <t>Billsby</t>
-  </si>
-  <si>
-    <t>No Contact Job Functions found for this Contact Account Association. Select Add (+).</t>
-  </si>
-  <si>
-    <t>errorMessage1</t>
-  </si>
-  <si>
-    <t>No Contact Communications found for this Contact Account Association. Select Add (+).</t>
-  </si>
-  <si>
-    <t>3/4/2021</t>
-  </si>
-  <si>
-    <t>2000462645</t>
-  </si>
-  <si>
-    <t>2000462646</t>
-  </si>
-  <si>
-    <t>2000462648</t>
-  </si>
-  <si>
-    <t>2000462649</t>
-  </si>
-  <si>
-    <t>2000462652</t>
-  </si>
-  <si>
-    <t>2000462655</t>
-  </si>
-  <si>
-    <t>2000462656</t>
-  </si>
-  <si>
-    <t>2000462657</t>
-  </si>
-  <si>
-    <t>2000462662</t>
-  </si>
-  <si>
-    <t>2000462663</t>
-  </si>
-  <si>
-    <t>7000552463</t>
-  </si>
-  <si>
-    <t>7000552464</t>
-  </si>
-  <si>
-    <t>7000552466</t>
-  </si>
-  <si>
-    <t>7000552467</t>
-  </si>
-  <si>
-    <t>7000552468</t>
-  </si>
-  <si>
-    <t>7000552469</t>
+    <t>Mship Prov With Program</t>
+  </si>
+  <si>
+    <t>Mship Provi With DSH</t>
+  </si>
+  <si>
+    <t>Mship Provider With AA</t>
+  </si>
+  <si>
+    <t>Mship Provider With SOAR</t>
+  </si>
+  <si>
+    <t>Inactive 4 Mem Prov SOAR</t>
+  </si>
+  <si>
+    <t>StaTermi 4 Mem Prov AA</t>
+  </si>
+  <si>
+    <t>4000463558</t>
+  </si>
+  <si>
+    <t>4000463560</t>
+  </si>
+  <si>
+    <t>4000463561</t>
+  </si>
+  <si>
+    <t>4000463562</t>
+  </si>
+  <si>
+    <t>4000463563</t>
+  </si>
+  <si>
+    <t>4000463564</t>
+  </si>
+  <si>
+    <t>4000463565</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>4000463720</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_03_10_09_33_39</t>
+    <t>2021_04_01_10_22_42</t>
+  </si>
+  <si>
+    <t>4000463721</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_26_42</t>
+  </si>
+  <si>
+    <t>4000463722</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_29_33</t>
+  </si>
+  <si>
+    <t>4000463723</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_33_15</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_36_54</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_40_38</t>
+  </si>
+  <si>
+    <t>4000463726</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_44_22</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_47_59</t>
+  </si>
+  <si>
+    <t>4000463728</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_51_22</t>
+  </si>
+  <si>
+    <t>4000463729</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_54_58</t>
+  </si>
+  <si>
+    <t>4000463730</t>
+  </si>
+  <si>
+    <t>2021_04_01_10_58_23</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_01_29</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_05_56</t>
+  </si>
+  <si>
+    <t>4000463733</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_09_00</t>
+  </si>
+  <si>
+    <t>4000463734</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_12_02</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_15_05</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_19_12</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_20_33</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_22_05</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_23_45</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_25_20</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_26_40</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_28_12</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_29_48</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_30_57</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_32_36</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_34_04</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_35_32</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_37_04</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_38_25</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_39_54</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_41_56</t>
+  </si>
+  <si>
+    <t>7000552816</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_44_23</t>
+  </si>
+  <si>
+    <t>7000552817</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_47_54</t>
+  </si>
+  <si>
+    <t>7000552818</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_50_44</t>
+  </si>
+  <si>
+    <t>7000552819</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_52_52</t>
+  </si>
+  <si>
+    <t>7000552820</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_56_40</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_58_07</t>
+  </si>
+  <si>
+    <t>2021_04_01_11_59_30</t>
+  </si>
+  <si>
+    <t>7000552821</t>
+  </si>
+  <si>
+    <t>2021_04_01_12_02_59</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_48_06</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_49_21</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_50_35</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_51_50</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_53_04</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_54_20</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_55_34</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_56_48</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_58_02</t>
+  </si>
+  <si>
+    <t>2021_04_05_11_59_16</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_27_50</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_29_07</t>
+  </si>
+  <si>
+    <t>2000471231</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_36_47</t>
+  </si>
+  <si>
+    <t>2000471232</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_40_38</t>
+  </si>
+  <si>
+    <t>2000471233</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_44_19</t>
+  </si>
+  <si>
+    <t>2000471234</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_47_52</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_51_16</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_54_39</t>
+  </si>
+  <si>
+    <t>2000471237</t>
+  </si>
+  <si>
+    <t>2021_04_05_12_58_26</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_02_05</t>
+  </si>
+  <si>
+    <t>2000471240</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_05_09</t>
+  </si>
+  <si>
+    <t>2000471241</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_08_44</t>
+  </si>
+  <si>
+    <t>2000471242</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_11_47</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_14_38</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_18_49</t>
+  </si>
+  <si>
+    <t>2000471245</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_21_35</t>
+  </si>
+  <si>
+    <t>2000471246</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_24_34</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_27_24</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_31_14</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_32_25</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_33_57</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_35_38</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_37_15</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_38_41</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_40_14</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_41_51</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_43_01</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_44_43</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_46_12</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_47_41</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_49_11</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_50_33</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_52_04</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_54_08</t>
+  </si>
+  <si>
+    <t>7000554531</t>
+  </si>
+  <si>
+    <t>2021_04_05_01_57_02</t>
+  </si>
+  <si>
+    <t>7000554532</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_01_13</t>
+  </si>
+  <si>
+    <t>7000554533</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_04_22</t>
+  </si>
+  <si>
+    <t>7000554534</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_06_51</t>
+  </si>
+  <si>
+    <t>7000554535</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_10_57</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_12_25</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_13_50</t>
+  </si>
+  <si>
+    <t>7000554536</t>
+  </si>
+  <si>
+    <t>2021_04_05_02_17_38</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1656,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,6 +1744,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF505050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1544,7 +1895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1559,9 +1909,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1571,14 +1918,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,835 +2249,835 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="107.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>63</v>
+      <c r="B2" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>64</v>
+      <c r="B3" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>484</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>349</v>
+        <v>483</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>66</v>
+      <c r="B4" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>65</v>
+      <c r="B5" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>488</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>78</v>
+      <c r="B6" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>81</v>
+      <c r="B7" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>87</v>
+      <c r="B8" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>492</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>88</v>
+      <c r="B9" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>110</v>
+      <c r="B10" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="H10" t="s">
-        <v>409</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>115</v>
+      <c r="B11" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>224</v>
+        <v>65</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="H11" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>112</v>
+      <c r="B12" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>499</v>
       </c>
       <c r="H12" t="s">
-        <v>411</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>120</v>
+      <c r="B13" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>134</v>
+      <c r="B14" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>106</v>
+      <c r="B15" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>224</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>411</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>503</v>
       </c>
       <c r="H15" t="s">
-        <v>412</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>105</v>
+      <c r="B16" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>224</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>413</v>
       </c>
       <c r="G16" t="s">
-        <v>225</v>
+        <v>505</v>
       </c>
       <c r="H16" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>218</v>
+      <c r="B17" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>121</v>
+      <c r="B18" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>131</v>
+      <c r="B19" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G19" t="s">
-        <v>225</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>56</v>
+      <c r="B20" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="H20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>153</v>
+      <c r="B21" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>510</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>158</v>
+      <c r="B22" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>165</v>
+      <c r="B23" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>170</v>
+      <c r="B24" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>513</v>
       </c>
       <c r="H24" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>175</v>
+      <c r="B25" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>514</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>179</v>
+      <c r="B26" s="47" t="s">
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>224</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>225</v>
+        <v>515</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>184</v>
+      <c r="B27" s="47" t="s">
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>516</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>187</v>
+      <c r="B28" s="47" t="s">
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>517</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>193</v>
+      <c r="B29" s="47" t="s">
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>518</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>198</v>
+      <c r="B30" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>205</v>
+      <c r="B31" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>520</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>212</v>
+      <c r="B32" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>521</v>
       </c>
       <c r="H32" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2732,25 +3085,25 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2758,25 +3111,25 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H34" t="s">
-        <v>225</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2784,25 +3137,25 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2810,25 +3163,25 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H36" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2836,25 +3189,25 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>225</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2862,25 +3215,25 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2888,74 +3241,74 @@
         <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>315</v>
+      <c r="B40" t="s">
+        <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
         <v>2</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="34" t="s">
+      <c r="B41" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>225</v>
+      <c r="E41" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2963,260 +3316,260 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>360</v>
+      <c r="B43" s="40" t="s">
+        <v>341</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F43" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>225</v>
+        <v>524</v>
       </c>
       <c r="H43" t="s">
-        <v>414</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>364</v>
+      <c r="B44" s="41" t="s">
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F44" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>526</v>
       </c>
       <c r="H44" t="s">
-        <v>415</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>363</v>
+      <c r="B45" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>528</v>
       </c>
       <c r="H45" t="s">
-        <v>416</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>378</v>
+      <c r="B46" s="40" t="s">
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>530</v>
       </c>
       <c r="H46" t="s">
-        <v>382</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>389</v>
+      <c r="B47" s="40" t="s">
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F47" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>532</v>
       </c>
       <c r="H47" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>388</v>
+      <c r="B48" s="40" t="s">
+        <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>385</v>
+      <c r="B49" s="40" t="s">
+        <v>365</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F49" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>396</v>
+      <c r="B50" s="40" t="s">
+        <v>375</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>536</v>
       </c>
       <c r="H50" t="s">
-        <v>418</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>397</v>
+      <c r="B51" t="s">
+        <v>376</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H51" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C52" xr:uid="{69BD04DD-C7E1-439A-93DB-B5B55DD5924D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{E8013668-29D5-4C19-A568-35D908452B7C}"/>
+    <hyperlink ref="I3" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{98F35F52-DD7C-44DC-B186-5457CE641A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3227,99 +3580,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:CT28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="36.5546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="4.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="30.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="23.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="22.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="8.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="6" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="26.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="24.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="27" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="25" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="29" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="15.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="25.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="17.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="9.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="14.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="32" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="16.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="79" width="9.109375" style="6" collapsed="1"/>
-    <col min="80" max="80" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="92" width="9.109375" style="6" collapsed="1"/>
-    <col min="93" max="93" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="26.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="22.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="18.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="16384" width="9.109375" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="69.109375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="12.44140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
+    <col min="52" max="53" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
+    <col min="73" max="79" style="6" width="9.109375" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
+    <col min="81" max="92" style="6" width="9.109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="6" width="26.109375" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="6" width="22.88671875" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="6" width="18.109375" collapsed="true"/>
+    <col min="99" max="16384" style="6" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -3328,31 +3681,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>5</v>
@@ -3364,22 +3717,22 @@
         <v>8</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>10</v>
@@ -3424,190 +3777,190 @@
         <v>24</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="AM1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AO1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AP1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AS1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="AU1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AV1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="BA1" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BV1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BF1" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="BX1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BI1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BL1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BO1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BR1" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="CC1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BU1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BV1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BW1" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="CP1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BZ1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="CQ1" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="CR1" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="CS1" s="6" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="CT1" s="6" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>31</v>
@@ -3624,20 +3977,20 @@
         <v>2</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>28</v>
@@ -3649,7 +4002,7 @@
         <v>26</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>23</v>
@@ -3661,58 +4014,58 @@
         <v>27</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP2" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ2" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT2" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
@@ -3720,26 +4073,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="25"/>
       <c r="I3" s="6" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>23</v>
@@ -3751,7 +4104,7 @@
         <v>22020</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
@@ -3770,29 +4123,29 @@
       <c r="BT3" s="9"/>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="BX3" s="9" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="BY3" s="9"/>
       <c r="BZ3" s="22" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="CA3" s="9"/>
       <c r="CB3" s="9"/>
       <c r="CC3" s="9"/>
       <c r="CP3" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ3" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT3" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3800,7 +4153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -3809,20 +4162,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>11</v>
@@ -3831,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>23</v>
@@ -3843,70 +4196,70 @@
         <v>27</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC4" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="BC4" s="46" t="s">
+        <v>395</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP4" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ4" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT4" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3914,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>31</v>
@@ -3923,20 +4276,20 @@
         <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>11</v>
@@ -3945,7 +4298,7 @@
         <v>26</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>23</v>
@@ -3957,70 +4310,70 @@
         <v>27</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP5" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ5" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT5" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4028,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>31</v>
@@ -4037,22 +4390,22 @@
         <v>2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q6" s="33"/>
+        <v>382</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="32"/>
       <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4413,7 @@
         <v>26</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>23</v>
@@ -4069,58 +4422,58 @@
         <v>27</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP6" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ6" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT6" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4128,7 +4481,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
@@ -4137,20 +4490,20 @@
         <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>11</v>
@@ -4159,7 +4512,7 @@
         <v>26</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>23</v>
@@ -4171,58 +4524,58 @@
         <v>27</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG7" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP7" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ7" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT7" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
@@ -4239,20 +4592,20 @@
         <v>2</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>11</v>
@@ -4261,7 +4614,7 @@
         <v>26</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>23</v>
@@ -4270,58 +4623,58 @@
         <v>27</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG8" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP8" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ8" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT8" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4329,29 +4682,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>11</v>
@@ -4360,7 +4713,7 @@
         <v>26</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>23</v>
@@ -4373,64 +4726,64 @@
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AG9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AP9" s="10">
         <v>44259</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="CP9" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ9" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT9" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4438,29 +4791,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>11</v>
@@ -4469,7 +4822,7 @@
         <v>26</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z10" s="9" t="s">
         <v>23</v>
@@ -4482,70 +4835,70 @@
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AG10" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AP10" s="10">
         <v>44259</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BA10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="CP10" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ10" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT10" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4553,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>31</v>
@@ -4562,23 +4915,23 @@
         <v>2</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>28</v>
@@ -4590,7 +4943,7 @@
         <v>26</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>23</v>
@@ -4602,65 +4955,65 @@
         <v>27</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG11" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AU11" s="10"/>
       <c r="AV11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP11" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ11" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT11" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4668,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>31</v>
@@ -4677,23 +5030,23 @@
         <v>2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>11</v>
@@ -4702,7 +5055,7 @@
         <v>26</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>23</v>
@@ -4714,70 +5067,70 @@
         <v>27</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AG12" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX12" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA12" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC12" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD12" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP12" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ12" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT12" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4785,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>31</v>
@@ -4794,23 +5147,23 @@
         <v>2</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>11</v>
@@ -4819,7 +5172,7 @@
         <v>26</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z13" s="9" t="s">
         <v>23</v>
@@ -4831,58 +5184,58 @@
         <v>27</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY13" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP13" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ13" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT13" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4890,7 +5243,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -4899,23 +5252,23 @@
         <v>2</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>28</v>
@@ -4927,7 +5280,7 @@
         <v>26</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>23</v>
@@ -4939,58 +5292,58 @@
         <v>27</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG14" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP14" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ14" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT14" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4998,7 +5351,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>31</v>
@@ -5007,23 +5360,23 @@
         <v>2</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>28</v>
@@ -5035,7 +5388,7 @@
         <v>26</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>23</v>
@@ -5047,58 +5400,58 @@
         <v>27</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW15" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP15" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ15" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT15" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5106,7 +5459,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>31</v>
@@ -5115,23 +5468,23 @@
         <v>2</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P16" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>28</v>
@@ -5143,7 +5496,7 @@
         <v>26</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>23</v>
@@ -5155,31 +5508,31 @@
         <v>27</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
@@ -5188,37 +5541,37 @@
       <c r="AR16" s="15"/>
       <c r="AS16" s="11"/>
       <c r="AV16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP16" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ16" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT16" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5579,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>31</v>
@@ -5235,23 +5588,23 @@
         <v>2</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>28</v>
@@ -5263,7 +5616,7 @@
         <v>26</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>23</v>
@@ -5275,31 +5628,31 @@
         <v>27</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
@@ -5310,37 +5663,37 @@
       <c r="AT17" s="11"/>
       <c r="AU17" s="10"/>
       <c r="AV17" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW17" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX17" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY17" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA17" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC17" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD17" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="CP17" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ17" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT17" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:98" x14ac:dyDescent="0.3">
@@ -5348,7 +5701,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>31</v>
@@ -5361,38 +5714,38 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
         <v>28</v>
       </c>
       <c r="S18" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="T18" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="U18" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W18" s="9" t="s">
         <v>11</v>
@@ -5401,7 +5754,7 @@
         <v>26</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>23</v>
@@ -5413,33 +5766,33 @@
         <v>27</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AF18" s="9"/>
       <c r="AG18" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -5449,13 +5802,13 @@
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
       <c r="CP18" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ18" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT18" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.3">
@@ -5463,7 +5816,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>31</v>
@@ -5486,13 +5839,13 @@
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
       <c r="CP19" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ19" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT19" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.3">
@@ -5500,7 +5853,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -5508,40 +5861,40 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>353</v>
+      <c r="E20" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>334</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="33"/>
+      <c r="P20" s="32"/>
       <c r="CP20" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ20" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT20" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.3">
@@ -5549,42 +5902,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N21" t="s">
         <v>6</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>11</v>
@@ -5593,7 +5946,7 @@
         <v>26</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>23</v>
@@ -5605,193 +5958,193 @@
         <v>27</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AG21" s="14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AO21" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AP21" s="10">
         <v>44259</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AS21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AT21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU21" s="30" t="s">
-        <v>287</v>
+        <v>97</v>
+      </c>
+      <c r="AU21" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW21" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AX21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY21" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BA21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BB21" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BC21" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BD21" s="9" t="s">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="BE21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="BF21" s="19" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="BG21" t="s">
         <v>6</v>
       </c>
       <c r="BH21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BI21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BJ21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BK21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BL21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BM21" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO21" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP21" t="s">
         <v>260</v>
       </c>
-      <c r="BN21" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="BO21" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="BP21" t="s">
+      <c r="BQ21" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR21" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>266</v>
+      </c>
+      <c r="BU21" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV21" t="s">
         <v>268</v>
       </c>
-      <c r="BQ21" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR21" s="19" t="s">
+      <c r="BW21" t="s">
+        <v>270</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>330</v>
+      </c>
+      <c r="BY21" t="s">
         <v>272</v>
       </c>
-      <c r="BS21" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT21" t="s">
+      <c r="BZ21" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="CA21" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="CB21" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="BU21" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>277</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>348</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>281</v>
-      </c>
-      <c r="BZ21" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="CA21" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="CB21" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="CC21" s="29" t="s">
-        <v>282</v>
+      <c r="CC21" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="CD21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CE21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CF21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CG21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CH21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CI21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CJ21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CK21" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="CL21" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="CM21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CN21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CP21" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="CQ21" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="CT21" s="9" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.3">
@@ -5799,31 +6152,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>295</v>
+      <c r="E22" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="CO22" s="31" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="CO22" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="CP22" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="CQ22" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:98" x14ac:dyDescent="0.3">
@@ -5831,31 +6184,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>295</v>
+      <c r="E23" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="CO23" s="31" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="CO23" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="CP23" s="6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="CQ23" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:98" x14ac:dyDescent="0.3">
@@ -5863,31 +6216,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>295</v>
+      <c r="E24" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="CO24" s="31" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="CO24" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="CP24" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="CQ24" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.3">
@@ -5895,31 +6248,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>295</v>
+      <c r="E25" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="W25" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO25" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="CP25" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="CO25" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="CP25" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="CQ25" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:98" x14ac:dyDescent="0.3">
@@ -5927,34 +6280,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>295</v>
+      <c r="E26" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="W26" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO26" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="CP26" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="CO26" s="31" t="s">
+      <c r="CQ26" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR26" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="CP26" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="CQ26" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="CR26" s="33" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:98" x14ac:dyDescent="0.3">
@@ -5962,34 +6315,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>295</v>
+      <c r="E27" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="CO27" s="31" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="CO27" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="CP27" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="CQ27" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="CR27" s="33" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+      <c r="CR27" s="32" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:98" x14ac:dyDescent="0.3">
@@ -5997,25 +6350,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="X28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z28" s="9" t="s">
         <v>23</v>
@@ -6026,23 +6379,23 @@
       <c r="AB28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC28" s="32" t="s">
-        <v>317</v>
+      <c r="AC28" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AG28" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AJ28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="CS28" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6059,65 +6412,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="82.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="34.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="4.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -6126,133 +6479,133 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="T1" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="U1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="AA1" s="20" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="AB1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AC1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AD1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AE1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AF1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
       </c>
       <c r="AI1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="AJ1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AK1" t="s">
         <v>30</v>
       </c>
       <c r="AL1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="AM1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AN1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AO1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="AP1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="AQ1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="AR1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AS1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AT1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="AU1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
@@ -6260,34 +6613,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -6311,40 +6664,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>27</v>
@@ -6357,7 +6710,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
@@ -6365,46 +6718,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -6412,7 +6765,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -6421,40 +6774,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>27</v>
@@ -6472,44 +6825,44 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>27</v>
@@ -6522,7 +6875,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Z6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
@@ -6530,44 +6883,44 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>27</v>
@@ -6580,7 +6933,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Z7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
@@ -6588,42 +6941,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
@@ -6631,58 +6984,58 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J9" s="21">
         <v>44201</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="Z9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
@@ -6690,45 +7043,45 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="S10" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
@@ -6736,44 +7089,44 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="21"/>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="S11" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
@@ -6781,47 +7134,47 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="W12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
@@ -6829,49 +7182,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" t="s">
         <v>199</v>
       </c>
-      <c r="I13" t="s">
-        <v>206</v>
-      </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="W13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
@@ -6879,175 +7232,175 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="W14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="E15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>161</v>
+      <c r="H15" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AA15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB15" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC15" s="34" t="s">
-        <v>62</v>
+        <v>169</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG15" t="s">
         <v>268</v>
       </c>
-      <c r="AF15" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH15" s="34" t="s">
-        <v>82</v>
+      <c r="AH15" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="AI15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AJ15" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK15" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AL15" s="22" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AM15" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN15" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AO15" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS15" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="AT15" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" s="34" t="s">
-        <v>62</v>
+        <v>275</v>
+      </c>
+      <c r="AN15" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR15" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS15" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU15" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7061,40 +7414,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="113.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="65.44140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="113.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="65.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -7102,50 +7455,50 @@
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>387</v>
+      <c r="E1" s="37" t="s">
+        <v>367</v>
       </c>
       <c r="F1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="J1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>380</v>
       </c>
-      <c r="R1" t="s">
-        <v>401</v>
-      </c>
       <c r="S1" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -7153,33 +7506,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I2" s="22"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>373</v>
+      <c r="K2" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -7187,89 +7540,89 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="38"/>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>373</v>
+      <c r="K3" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>354</v>
       </c>
       <c r="M3" s="21">
         <v>44562</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>313</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="U3" s="33"/>
+        <v>296</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="38"/>
       <c r="F4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" t="s">
         <v>358</v>
       </c>
-      <c r="G4" t="s">
-        <v>377</v>
-      </c>
       <c r="H4" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>373</v>
+      <c r="K4" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>354</v>
       </c>
       <c r="M4" s="21">
         <v>44562</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -7277,34 +7630,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="38"/>
       <c r="P5" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="Q5" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -7312,33 +7665,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="38"/>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>373</v>
+      <c r="K6" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -7346,78 +7699,78 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="K7" s="40"/>
+      <c r="E7" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="E8" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="38" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="J9" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>373</v>
+      <c r="K9" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>354</v>
       </c>
       <c r="N9" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>402</v>
+        <v>297</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -7425,37 +7778,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>373</v>
+      <c r="K10" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>354</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
